--- a/◆数学_演習帳◆_部品共通.xlsx
+++ b/◆数学_演習帳◆_部品共通.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roshi_000.000\MyImp\MyOwn\学習\数学\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0B5553-8070-438E-B597-16A33589B77E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="決まり事項" sheetId="4" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="◆NewSheet◆" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数式!$A$3:$BD$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数式!$A$3:$BD$134</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">◆NewSheet◆!$A:$BB</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">カメラ!$A:$BB</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">決まり事項!$A:$BB</definedName>
@@ -32,17 +33,26 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">数式!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">部品!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="162">
   <si>
     <t>２行用</t>
     <rPh sb="1" eb="2">
@@ -1598,11 +1608,42 @@
     <t>\hspace{0pt}</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>右矢印</t>
+    <rPh sb="0" eb="3">
+      <t>ミギヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\implies</t>
+  </si>
+  <si>
+    <t>両矢印</t>
+    <rPh sb="0" eb="3">
+      <t>リョウヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\iff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左矢印</t>
+    <rPh sb="0" eb="3">
+      <t>ヒダリヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\impliedby</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1815,7 +1856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1963,6 +2004,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2010,7 +2054,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13" descr="[res=120]{&#10;\[&#10;&#10; ( a - 4,\ b - 2 ) = (1,\ 3),\ (3,\ 1),\ (-1,\ -3),\ (-3,\ -1)&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="14" name="図 13" descr="[res=120]{&#10;\[&#10;&#10; ( a - 4,\ b - 2 ) = (1,\ 3),\ (3,\ 1),\ (-1,\ -3),\ (-3,\ -1)&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2065,7 +2115,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14" descr="[res=120]{&#10;\[&#10;&#10; f(0) \geqq 0,\ f(1) \geqq 0&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="15" name="図 14" descr="[res=120]{&#10;\[&#10;&#10; f(0) \geqq 0,\ f(1) \geqq 0&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2120,7 +2176,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15" descr="[res=120]{&#10;\[&#10;&#10; y = 2x\ \ \ \left( 0 \leqq x \leqq 1 \right)&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="16" name="図 15" descr="[res=120]{&#10;\[&#10;&#10; y = 2x\ \ \ \left( 0 \leqq x \leqq 1 \right)&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2175,7 +2237,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5" descr="[res=120]{&#10;\[&#10;&#10; \frac{1}{\ 2\ } \leqq \frac{a}{\ 2\ } &lt; 1\ \ \iff \ \ 1 \leqq a &lt; 2&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="6" name="図 5" descr="[res=120]{&#10;\[&#10;&#10; \frac{1}{\ 2\ } \leqq \frac{a}{\ 2\ } &lt; 1\ \ \iff \ \ 1 \leqq a &lt; 2&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2230,7 +2298,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7" descr="[res=120]{&#10;\[&#10;&#10;&#10;y\leqq 2ax-a^2+2a+2\ \ \ \cdots D(a)&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="8" name="図 7" descr="[res=120]{&#10;\[&#10;&#10;&#10;y\leqq 2ax-a^2+2a+2\ \ \ \cdots D(a)&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2285,7 +2359,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6" descr="[res=120]{&#10;\[&#10;&#10;&#10;|\overrightarrow{a}|:|\overrightarrow{b}|=\sqrt{2}:\sqrt{3}\ \ \ \left(\ne 2:3 \right)&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="7" name="図 6" descr="[res=120]{&#10;\[&#10;&#10;&#10;|\overrightarrow{a}|:|\overrightarrow{b}|=\sqrt{2}:\sqrt{3}\ \ \ \left(\ne 2:3 \right)&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2340,7 +2420,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8" descr="[res=120]{&#10;\[&#10;&#10;&#10;l:\ (1-k)x+(1+k)y+2-2k=0&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="9" name="図 8" descr="[res=120]{&#10;\[&#10;&#10;&#10;l:\ (1-k)x+(1+k)y+2-2k=0&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2395,7 +2481,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9" descr="[res=120]{&#10;\[&#10;&#10;&#10;l:&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="10" name="図 9" descr="[res=120]{&#10;\[&#10;&#10;&#10;l:&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2450,7 +2542,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10" descr="[res=120]{&#10;\[&#10;&#10;&#10;x=t\ \ (&lt;0)&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="11" name="図 10" descr="[res=120]{&#10;\[&#10;&#10;&#10;x=t\ \ (&lt;0)&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2510,7 +2608,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="左中かっこ 1"/>
+        <xdr:cNvPr id="2" name="左中かっこ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2578,7 +2682,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="グループ化 2"/>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2591,7 +2701,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+          <xdr:cNvPr id="4" name="直線コネクタ 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2621,7 +2737,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="円弧 4"/>
+          <xdr:cNvPr id="5" name="円弧 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2662,7 +2784,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="円弧 5"/>
+          <xdr:cNvPr id="6" name="円弧 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2719,7 +2847,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="左中かっこ 12"/>
+        <xdr:cNvPr id="13" name="左中かっこ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2787,7 +2921,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線コネクタ 24"/>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2832,7 +2972,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="93" name="グループ化 92"/>
+        <xdr:cNvPr id="93" name="グループ化 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2845,7 +2991,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="48" name="直線コネクタ 47"/>
+          <xdr:cNvPr id="48" name="直線コネクタ 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2875,7 +3027,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="円弧 48"/>
+          <xdr:cNvPr id="49" name="円弧 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2916,7 +3074,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="円弧 49"/>
+          <xdr:cNvPr id="50" name="円弧 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2973,7 +3137,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="94" name="グループ化 93"/>
+        <xdr:cNvPr id="94" name="グループ化 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2986,7 +3156,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="52" name="直線コネクタ 51"/>
+          <xdr:cNvPr id="52" name="直線コネクタ 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3016,7 +3192,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="円弧 52"/>
+          <xdr:cNvPr id="53" name="円弧 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3057,7 +3239,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="円弧 53"/>
+          <xdr:cNvPr id="54" name="円弧 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3114,7 +3302,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="95" name="グループ化 94"/>
+        <xdr:cNvPr id="95" name="グループ化 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3127,7 +3321,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="55" name="直線コネクタ 54"/>
+          <xdr:cNvPr id="55" name="直線コネクタ 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3157,7 +3357,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="円弧 55"/>
+          <xdr:cNvPr id="56" name="円弧 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3198,7 +3404,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="円弧 56"/>
+          <xdr:cNvPr id="57" name="円弧 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3255,7 +3467,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="96" name="グループ化 95"/>
+        <xdr:cNvPr id="96" name="グループ化 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3268,7 +3486,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="58" name="直線コネクタ 57"/>
+          <xdr:cNvPr id="58" name="直線コネクタ 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3298,7 +3522,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="円弧 58"/>
+          <xdr:cNvPr id="59" name="円弧 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3339,7 +3569,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="円弧 59"/>
+          <xdr:cNvPr id="60" name="円弧 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3396,7 +3632,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="97" name="グループ化 96"/>
+        <xdr:cNvPr id="97" name="グループ化 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3409,7 +3651,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="61" name="直線コネクタ 60"/>
+          <xdr:cNvPr id="61" name="直線コネクタ 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3439,7 +3687,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="円弧 61"/>
+          <xdr:cNvPr id="62" name="円弧 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3480,7 +3734,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="円弧 62"/>
+          <xdr:cNvPr id="63" name="円弧 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3537,7 +3797,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="98" name="グループ化 97"/>
+        <xdr:cNvPr id="98" name="グループ化 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3550,7 +3816,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="64" name="直線コネクタ 63"/>
+          <xdr:cNvPr id="64" name="直線コネクタ 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3580,7 +3852,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="円弧 64"/>
+          <xdr:cNvPr id="65" name="円弧 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3621,7 +3899,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="円弧 65"/>
+          <xdr:cNvPr id="66" name="円弧 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3678,7 +3962,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="99" name="グループ化 98"/>
+        <xdr:cNvPr id="99" name="グループ化 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3691,7 +3981,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="72" name="直線コネクタ 71"/>
+          <xdr:cNvPr id="72" name="直線コネクタ 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3721,7 +4017,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="円弧 72"/>
+          <xdr:cNvPr id="73" name="円弧 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3762,7 +4064,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="円弧 73"/>
+          <xdr:cNvPr id="74" name="円弧 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3819,7 +4127,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="100" name="グループ化 99"/>
+        <xdr:cNvPr id="100" name="グループ化 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3832,7 +4146,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="75" name="直線コネクタ 74"/>
+          <xdr:cNvPr id="75" name="直線コネクタ 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3862,7 +4182,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="円弧 75"/>
+          <xdr:cNvPr id="76" name="円弧 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3903,7 +4229,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="77" name="円弧 76"/>
+          <xdr:cNvPr id="77" name="円弧 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3960,7 +4292,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="101" name="グループ化 100"/>
+        <xdr:cNvPr id="101" name="グループ化 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3973,7 +4311,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="78" name="直線コネクタ 77"/>
+          <xdr:cNvPr id="78" name="直線コネクタ 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4003,7 +4347,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="円弧 78"/>
+          <xdr:cNvPr id="79" name="円弧 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4044,7 +4394,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="円弧 79"/>
+          <xdr:cNvPr id="80" name="円弧 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4101,7 +4457,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="102" name="グループ化 101"/>
+        <xdr:cNvPr id="102" name="グループ化 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4114,7 +4476,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="81" name="直線コネクタ 80"/>
+          <xdr:cNvPr id="81" name="直線コネクタ 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4144,7 +4512,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="円弧 81"/>
+          <xdr:cNvPr id="82" name="円弧 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4185,7 +4559,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="83" name="円弧 82"/>
+          <xdr:cNvPr id="83" name="円弧 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4242,7 +4622,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="103" name="グループ化 102"/>
+        <xdr:cNvPr id="103" name="グループ化 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4255,7 +4641,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="89" name="直線コネクタ 88"/>
+          <xdr:cNvPr id="89" name="直線コネクタ 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4285,7 +4677,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="円弧 89"/>
+          <xdr:cNvPr id="90" name="円弧 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4326,7 +4724,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="円弧 90"/>
+          <xdr:cNvPr id="91" name="円弧 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4383,7 +4787,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="115" name="グループ化 114"/>
+        <xdr:cNvPr id="115" name="グループ化 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4396,7 +4806,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="105" name="直線コネクタ 104"/>
+          <xdr:cNvPr id="105" name="直線コネクタ 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4426,7 +4842,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="円弧 105"/>
+          <xdr:cNvPr id="106" name="円弧 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4467,7 +4889,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="円弧 106"/>
+          <xdr:cNvPr id="107" name="円弧 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4524,7 +4952,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="114" name="グループ化 113"/>
+        <xdr:cNvPr id="114" name="グループ化 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4537,7 +4971,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="109" name="直線コネクタ 108"/>
+          <xdr:cNvPr id="109" name="直線コネクタ 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4567,7 +5007,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="110" name="円弧 109"/>
+          <xdr:cNvPr id="110" name="円弧 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4608,7 +5054,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="111" name="円弧 110"/>
+          <xdr:cNvPr id="111" name="円弧 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4665,7 +5117,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4678,7 +5136,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="円弧 107"/>
+          <xdr:cNvPr id="108" name="円弧 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4719,7 +5183,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="円弧 111"/>
+          <xdr:cNvPr id="112" name="円弧 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000070000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4760,7 +5230,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="角丸四角形 112"/>
+          <xdr:cNvPr id="113" name="角丸四角形 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4817,7 +5293,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="121" name="斜め縞 120"/>
+          <xdr:cNvPr id="121" name="斜め縞 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4866,7 +5348,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="斜め縞 122"/>
+          <xdr:cNvPr id="123" name="斜め縞 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4918,7 +5406,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="1 つの角を丸めた四角形 123"/>
+          <xdr:cNvPr id="124" name="1 つの角を丸めた四角形 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4991,7 +5485,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="32" name="グループ化 31"/>
+        <xdr:cNvPr id="32" name="グループ化 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5004,7 +5504,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="134" name="直線コネクタ 133"/>
+          <xdr:cNvPr id="134" name="直線コネクタ 133">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000086000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -5034,7 +5540,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="135" name="円弧 134"/>
+          <xdr:cNvPr id="135" name="円弧 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000087000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5075,7 +5587,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="136" name="円弧 135"/>
+          <xdr:cNvPr id="136" name="円弧 135">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000088000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5132,7 +5650,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="グループ化 33"/>
+        <xdr:cNvPr id="34" name="グループ化 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5145,7 +5669,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="138" name="直線コネクタ 137"/>
+          <xdr:cNvPr id="138" name="直線コネクタ 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -5175,7 +5705,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="139" name="円弧 138"/>
+          <xdr:cNvPr id="139" name="円弧 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5216,7 +5752,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="140" name="円弧 139"/>
+          <xdr:cNvPr id="140" name="円弧 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5273,7 +5815,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="35" name="グループ化 34"/>
+        <xdr:cNvPr id="35" name="グループ化 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5286,7 +5834,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="117" name="直線コネクタ 116"/>
+          <xdr:cNvPr id="117" name="直線コネクタ 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000075000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -5315,7 +5869,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="141" name="直線コネクタ 140"/>
+          <xdr:cNvPr id="141" name="直線コネクタ 140">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -5360,7 +5920,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="142" name="グループ化 141"/>
+        <xdr:cNvPr id="142" name="グループ化 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5373,7 +5939,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="143" name="直線コネクタ 142"/>
+          <xdr:cNvPr id="143" name="直線コネクタ 142">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -5402,7 +5974,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="144" name="テキスト ボックス 143"/>
+          <xdr:cNvPr id="144" name="テキスト ボックス 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000090000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5469,7 +6047,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5519,7 +6103,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="円弧 6"/>
+        <xdr:cNvPr id="7" name="円弧 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5577,7 +6167,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="円弧 153"/>
+        <xdr:cNvPr id="154" name="円弧 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5635,7 +6231,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="円弧 154"/>
+        <xdr:cNvPr id="155" name="円弧 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5693,7 +6295,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="円弧 155"/>
+        <xdr:cNvPr id="156" name="円弧 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5751,7 +6359,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="円弧 156"/>
+        <xdr:cNvPr id="157" name="円弧 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5809,7 +6423,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="円弧 157"/>
+        <xdr:cNvPr id="158" name="円弧 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5867,7 +6487,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="円弧 158"/>
+        <xdr:cNvPr id="159" name="円弧 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5925,7 +6551,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="円弧 159"/>
+        <xdr:cNvPr id="160" name="円弧 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5983,7 +6615,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="左中かっこ 146"/>
+        <xdr:cNvPr id="147" name="左中かっこ 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6051,7 +6689,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="グループ化 16"/>
+        <xdr:cNvPr id="17" name="グループ化 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6064,7 +6708,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="167" name="直線コネクタ 166"/>
+          <xdr:cNvPr id="167" name="直線コネクタ 166">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6094,7 +6744,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="168" name="円弧 167"/>
+          <xdr:cNvPr id="168" name="円弧 167">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6135,7 +6791,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="169" name="円弧 168"/>
+          <xdr:cNvPr id="169" name="円弧 168">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6192,7 +6854,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="グループ化 17"/>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6205,7 +6873,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="171" name="直線コネクタ 170"/>
+          <xdr:cNvPr id="171" name="直線コネクタ 170">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6235,7 +6909,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="172" name="円弧 171"/>
+          <xdr:cNvPr id="172" name="円弧 171">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6276,7 +6956,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="173" name="円弧 172"/>
+          <xdr:cNvPr id="173" name="円弧 172">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6333,7 +7019,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvPr id="19" name="グループ化 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6346,7 +7038,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="175" name="直線コネクタ 174"/>
+          <xdr:cNvPr id="175" name="直線コネクタ 174">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6376,7 +7074,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="176" name="円弧 175"/>
+          <xdr:cNvPr id="176" name="円弧 175">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6417,7 +7121,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="177" name="円弧 176"/>
+          <xdr:cNvPr id="177" name="円弧 176">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6474,7 +7184,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="グループ化 19"/>
+        <xdr:cNvPr id="20" name="グループ化 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6487,7 +7203,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="205" name="直線コネクタ 204"/>
+          <xdr:cNvPr id="205" name="直線コネクタ 204">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6517,7 +7239,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="206" name="円弧 205"/>
+          <xdr:cNvPr id="206" name="円弧 205">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6558,7 +7286,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="207" name="円弧 206"/>
+          <xdr:cNvPr id="207" name="円弧 206">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CF000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6615,7 +7349,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="21" name="グループ化 20"/>
+        <xdr:cNvPr id="21" name="グループ化 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6628,7 +7368,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="209" name="直線コネクタ 208"/>
+          <xdr:cNvPr id="209" name="直線コネクタ 208">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6658,7 +7404,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="210" name="円弧 209"/>
+          <xdr:cNvPr id="210" name="円弧 209">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6699,7 +7451,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="211" name="円弧 210"/>
+          <xdr:cNvPr id="211" name="円弧 210">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6756,7 +7514,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="グループ化 21"/>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6769,7 +7533,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="213" name="直線コネクタ 212"/>
+          <xdr:cNvPr id="213" name="直線コネクタ 212">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6799,7 +7569,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="214" name="円弧 213"/>
+          <xdr:cNvPr id="214" name="円弧 213">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6840,7 +7616,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="215" name="円弧 214"/>
+          <xdr:cNvPr id="215" name="円弧 214">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6897,7 +7679,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="204" name="直線コネクタ 203"/>
+        <xdr:cNvPr id="204" name="直線コネクタ 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6942,7 +7730,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="グループ化 8"/>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6955,7 +7749,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="120" name="直線コネクタ 119"/>
+          <xdr:cNvPr id="120" name="直線コネクタ 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6985,7 +7785,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="円弧 121"/>
+          <xdr:cNvPr id="122" name="円弧 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7026,7 +7832,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="125" name="円弧 124"/>
+          <xdr:cNvPr id="125" name="円弧 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7083,7 +7895,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="128" name="図 127" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;a&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="128" name="図 127" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;a&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7138,7 +7956,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="129" name="図 128" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;b&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="129" name="図 128" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;b&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7193,7 +8017,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="図 129" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;c&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="130" name="図 129" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;c&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7248,7 +8078,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="131" name="図 130" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;d&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="131" name="図 130" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;d&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7303,7 +8139,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="132" name="図 131" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;e&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="132" name="図 131" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;e&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7358,7 +8200,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="図 132" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;f&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="133" name="図 132" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;f&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7413,7 +8261,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="137" name="図 136" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;g&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="137" name="図 136" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;g&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7468,7 +8322,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="図 144" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;h&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="145" name="図 144" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;h&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7523,7 +8383,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="146" name="図 145" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;k&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="146" name="図 145" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;k&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7578,7 +8444,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="148" name="図 147" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;l&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="148" name="図 147" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;l&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7633,7 +8505,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="149" name="図 148" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;m&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="149" name="図 148" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;m&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7688,7 +8566,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="151" name="図 150" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;n&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="151" name="図 150" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;n&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7743,7 +8627,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="152" name="図 151" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;o&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="152" name="図 151" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;o&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7798,7 +8688,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="図 152" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;p&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="153" name="図 152" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;p&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7853,7 +8749,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="161" name="図 160" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;q&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="161" name="図 160" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;q&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7908,7 +8810,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="162" name="図 161" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;r&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="162" name="図 161" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;r&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7963,7 +8871,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="163" name="図 162" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;s&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="163" name="図 162" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;s&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8018,7 +8932,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="164" name="図 163" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;t&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="164" name="図 163" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;t&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8073,7 +8993,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="165" name="図 164" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;u&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="165" name="図 164" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;u&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8128,7 +9054,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="166" name="図 165" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;v&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="166" name="図 165" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;v&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8183,7 +9115,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="170" name="図 169" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;x&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="170" name="図 169" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;x&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8238,7 +9176,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="174" name="図 173" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;y&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="174" name="図 173" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;y&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8293,7 +9237,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="178" name="図 177" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;z&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="178" name="図 177" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;z&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8348,7 +9298,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="179" name="図 178" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;A&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="179" name="図 178" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;A&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8403,7 +9359,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="180" name="図 179" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;B&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="180" name="図 179" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;B&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8458,7 +9420,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="181" name="図 180" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;C&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="181" name="図 180" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;C&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8513,7 +9481,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="182" name="図 181" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;D&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="182" name="図 181" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;D&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8568,7 +9542,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="183" name="図 182" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;E&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="183" name="図 182" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;E&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8623,7 +9603,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="184" name="図 183" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;F&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="184" name="図 183" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;F&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8678,7 +9664,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="185" name="図 184" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;G&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="185" name="図 184" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;G&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8733,7 +9725,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="186" name="図 185" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;H&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="186" name="図 185" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;H&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8788,7 +9786,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="187" name="図 186" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;K&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="187" name="図 186" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;K&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8843,7 +9847,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="188" name="図 187" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;L&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="188" name="図 187" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;L&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8898,7 +9908,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="189" name="図 188" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;M&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="189" name="図 188" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;M&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8953,7 +9969,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="190" name="図 189" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;N&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="190" name="図 189" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;N&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9008,7 +10030,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="191" name="図 190" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;O&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="191" name="図 190" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;O&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000BF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9063,7 +10091,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="192" name="図 191" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;P&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="192" name="図 191" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;P&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9118,7 +10152,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="193" name="図 192" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;Q&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="193" name="図 192" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;Q&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9173,7 +10213,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="194" name="図 193" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;R&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="194" name="図 193" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;R&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9228,7 +10274,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="195" name="図 194" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;S&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="195" name="図 194" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;S&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9283,7 +10335,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="196" name="図 195" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;T&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="196" name="図 195" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;T&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9338,7 +10396,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="197" name="図 196" descr="[res=400]{&#10;\[&#10;&#10;&#10;X&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="197" name="図 196" descr="[res=400]{&#10;\[&#10;&#10;&#10;X&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9393,7 +10457,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="198" name="図 197" descr="[res=400]{&#10;\[&#10;&#10;&#10;Y&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="198" name="図 197" descr="[res=400]{&#10;\[&#10;&#10;&#10;Y&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9448,7 +10518,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="199" name="図 198" descr="[res=400]{&#10;\[&#10;&#10;&#10;Z&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="199" name="図 198" descr="[res=400]{&#10;\[&#10;&#10;&#10;Z&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9503,7 +10579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="200" name="図 199" descr="[res=400]{&#10;\[&#10;&#10;&#10;\alpha&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="200" name="図 199" descr="[res=400]{&#10;\[&#10;&#10;&#10;\alpha&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9558,7 +10640,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="201" name="図 200" descr="[res=400]{&#10;\[&#10;&#10;&#10;\beta &#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="201" name="図 200" descr="[res=400]{&#10;\[&#10;&#10;&#10;\beta &#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000C9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9613,7 +10701,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="202" name="図 201" descr="[res=400]{&#10;\[&#10;&#10;&#10;\gamma&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="202" name="図 201" descr="[res=400]{&#10;\[&#10;&#10;&#10;\gamma&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9668,7 +10762,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="203" name="図 202" descr="[res=400]{&#10;\[&#10;&#10;&#10;\delta&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="203" name="図 202" descr="[res=400]{&#10;\[&#10;&#10;&#10;\delta&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000CB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9723,7 +10823,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="208" name="図 207" descr="[res=400]{&#10;\[&#10;&#10;&#10;\varepsilon&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="208" name="図 207" descr="[res=400]{&#10;\[&#10;&#10;&#10;\varepsilon&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9778,7 +10884,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="212" name="図 211" descr="[res=400]{&#10;\[&#10;&#10;&#10;\theta&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="212" name="図 211" descr="[res=400]{&#10;\[&#10;&#10;&#10;\theta&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9833,7 +10945,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="216" name="図 215" descr="[res=400]{&#10;\[&#10;&#10;&#10;\pi&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="216" name="図 215" descr="[res=400]{&#10;\[&#10;&#10;&#10;\pi&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9888,7 +11006,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="217" name="図 216" descr="[res=400]{&#10;\[&#10;&#10;&#10;\omega&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="217" name="図 216" descr="[res=400]{&#10;\[&#10;&#10;&#10;\omega&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9943,7 +11067,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="218" name="図 217" descr="[res=400]{&#10;\[&#10;&#10;&#10;f(x)&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="218" name="図 217" descr="[res=400]{&#10;\[&#10;&#10;&#10;f(x)&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -9998,7 +11128,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="219" name="図 218" descr="[res=400]{&#10;\[&#10;&#10;&#10;g(x)&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="219" name="図 218" descr="[res=400]{&#10;\[&#10;&#10;&#10;g(x)&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10053,7 +11189,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="220" name="図 219" descr="[res=400]{&#10;\[&#10;&#10;&#10;h(x)&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="220" name="図 219" descr="[res=400]{&#10;\[&#10;&#10;&#10;h(x)&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10108,7 +11250,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="221" name="図 220" descr="[res=400]{&#10;\[&#10;&#10;&#10;Q(x)&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="221" name="図 220" descr="[res=400]{&#10;\[&#10;&#10;&#10;Q(x)&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10163,7 +11311,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="222" name="図 221" descr="[res=400]{&#10;\[&#10;&#10;&#10;R(x)&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="222" name="図 221" descr="[res=400]{&#10;\[&#10;&#10;&#10;R(x)&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10218,7 +11372,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="223" name="図 222" descr="[res=400]{&#10;\[&#10;&#10;&#10;f%27(x)&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="223" name="図 222" descr="[res=400]{&#10;\[&#10;&#10;&#10;f%27(x)&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000DF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10273,7 +11433,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="224" name="図 223" descr="[res=400]{&#10;\[&#10;&#10;&#10;g%27(x)&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="224" name="図 223" descr="[res=400]{&#10;\[&#10;&#10;&#10;g%27(x)&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10328,7 +11494,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="225" name="図 224" descr="[res=400]{&#10;\[&#10;&#10;&#10;h%27(x)&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="225" name="図 224" descr="[res=400]{&#10;\[&#10;&#10;&#10;h%27(x)&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10383,7 +11555,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="226" name="図 225" descr="[res=400]{&#10;\[&#10;&#10;&#10;\nearrow&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="226" name="図 225" descr="[res=400]{&#10;\[&#10;&#10;&#10;\nearrow&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10438,7 +11616,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="227" name="図 226" descr="[res=400]{&#10;\[&#10;&#10;&#10;\searrow&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="227" name="図 226" descr="[res=400]{&#10;\[&#10;&#10;&#10;\searrow&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10493,7 +11677,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="228" name="図 227" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;(&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="228" name="図 227" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;(&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10548,7 +11738,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="229" name="図 228" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;)&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="229" name="図 228" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;)&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10603,7 +11799,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="230" name="図 229" descr="[res=400]{&#10;\[&#10;&#10;&#10;U&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="230" name="図 229" descr="[res=400]{&#10;\[&#10;&#10;&#10;U&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10658,7 +11860,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="231" name="図 230" descr="[res=400]{&#10;\[&#10;&#10;&#10;V&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="231" name="図 230" descr="[res=400]{&#10;\[&#10;&#10;&#10;V&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10713,7 +11921,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="232" name="左中かっこ 231"/>
+        <xdr:cNvPr id="232" name="左中かっこ 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10775,18 +11989,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>21981</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>27696</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>162878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;a_0\hspace{0pt}^2&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="2" name="図 1" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;a_0\hspace{0pt}^2&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10808,6 +12028,433 @@
         <a:xfrm>
           <a:off x="58616" y="3766038"/>
           <a:ext cx="203542" cy="162878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47332</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>157382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3" descr="[res=400]{&#10;\[&#10;&#10;&#10;\implies&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC098BB-0E89-4BE0-AD20-E6B76FAA9F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2220058" y="7260980"/>
+          <a:ext cx="237832" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66968</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>150055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4" descr="[res=400]{&#10;\[&#10;&#10;&#10;\iff&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252A987F-F148-4493-BD78-B3B0E0D22D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2205404" y="7825153"/>
+          <a:ext cx="272122" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>192411</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>34589</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5" descr="[res=400]{&#10;\[&#10;&#10;&#10;\impliedby&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A967F738-824C-451F-8F3F-247A417B2E28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2207315" y="8388689"/>
+          <a:ext cx="237832" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>29309</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171228</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>151116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6" descr="[res=400]{&#10;\[&#10;&#10;&#10;\overrightarrow{}&#10;&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03262D8-D35B-4751-9AF4-30DFFBD246FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2242040" y="428146"/>
+          <a:ext cx="141919" cy="60008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>77519</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7" descr="[res=400]{&#10;\[&#10;&#10;&#10;\binom{x}{y}&#10;&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F86A7E5-81AD-4203-82B8-3F4AD531A3A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2227385" y="1011115"/>
+          <a:ext cx="260692" cy="382905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>24472</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8" descr="[res=400]{&#10;\[&#10;&#10;&#10;\left(\begin{array}{cc} x\\ y\end{array}\right)&#10;&#10;&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89B2548-37F7-4A05-B3DA-F9056CBF04A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3802673" y="1582615"/>
+          <a:ext cx="412799" cy="382905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9" descr="[res=400]{&#10;\[&#10;&#10;&#10;\binom{x_1\ \ x_2}{y_1\ \ y_2}&#10;&#10;&#10;&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224FFB2E-097B-4290-A0A5-CFEDC61616C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3795347" y="2154115"/>
+          <a:ext cx="593481" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10841,7 +12488,13 @@
     <xdr:ext cx="888755" cy="161925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="[res=120]{&#10;\[&#10;&#10;|\beta-\alpha|&lt;90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="2" name="図 1" descr="[res=120]{&#10;\[&#10;&#10;|\beta-\alpha|&lt;90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10891,7 +12544,13 @@
     <xdr:ext cx="1358412" cy="152400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2" descr="[res=120]{&#10;\[&#10;&#10;-90^\circ&lt;\beta-\alpha&lt;90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="3" name="図 2" descr="[res=120]{&#10;\[&#10;&#10;-90^\circ&lt;\beta-\alpha&lt;90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10941,7 +12600,13 @@
     <xdr:ext cx="1284409" cy="152400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;-90^\circ&lt;\beta-\alpha&lt;0^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="4" name="図 3" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;-90^\circ&lt;\beta-\alpha&lt;0^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10991,7 +12656,13 @@
     <xdr:ext cx="3348403" cy="171450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;tan|\beta-\alpha|=tan\left\{-\left(\beta-\alpha\right)\right\}=-tan(\beta-\alpha)&gt;0&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="5" name="図 4" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;tan|\beta-\alpha|=tan\left\{-\left(\beta-\alpha\right)\right\}=-tan(\beta-\alpha)&gt;0&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11041,7 +12712,13 @@
     <xdr:ext cx="1725490" cy="171450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;tan|\beta-\alpha|=|tan(\beta-\alpha)|&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="6" name="図 5" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;tan|\beta-\alpha|=|tan(\beta-\alpha)|&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11091,7 +12768,13 @@
     <xdr:ext cx="888755" cy="161925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;|\beta-\alpha|&gt;90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="7" name="図 6" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;|\beta-\alpha|&gt;90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11141,7 +12824,13 @@
     <xdr:ext cx="934183" cy="152400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;\beta-\alpha&lt;-90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="8" name="図 7" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;\beta-\alpha&lt;-90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11191,7 +12880,13 @@
     <xdr:ext cx="934183" cy="152400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;\beta-\alpha&lt;-90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="9" name="図 8" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;\beta-\alpha&lt;-90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11241,7 +12936,13 @@
     <xdr:ext cx="2178294" cy="171450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;-tan|\beta-\alpha|=-tan(\beta-\alpha)&gt;0&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="10" name="図 9" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;-tan|\beta-\alpha|=-tan(\beta-\alpha)&gt;0&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11291,7 +12992,13 @@
     <xdr:ext cx="800832" cy="152400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;\beta-\alpha&gt;90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="11" name="図 10" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;\beta-\alpha&gt;90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11341,7 +13048,13 @@
     <xdr:ext cx="800832" cy="152400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;\beta-\alpha&gt;90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="12" name="図 11" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;\beta-\alpha&gt;90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11391,7 +13104,13 @@
     <xdr:ext cx="3441455" cy="171450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;-tan|\beta-\alpha|=-tan\left\{-(\beta-\alpha)\right\}=tan(\beta-\alpha)&gt;0&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="13" name="図 12" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;-tan|\beta-\alpha|=-tan\left\{-(\beta-\alpha)\right\}=tan(\beta-\alpha)&gt;0&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11441,7 +13160,13 @@
     <xdr:ext cx="1162782" cy="152400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;0^\circ&lt;\beta-\alpha&lt;90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="14" name="図 13" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;0^\circ&lt;\beta-\alpha&lt;90^\circ&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11491,7 +13216,13 @@
     <xdr:ext cx="1944565" cy="171450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;tan|\beta-\alpha|=tan(\beta-\alpha)&gt;0&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="15" name="図 14" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;tan|\beta-\alpha|=tan(\beta-\alpha)&gt;0&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11541,7 +13272,13 @@
     <xdr:ext cx="1847117" cy="171450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;-tan|\beta-\alpha|=|tan(\beta-\alpha)|&#10;&#10;&#10;\]&#10;&#10;}&#10;"/>
+        <xdr:cNvPr id="16" name="図 15" descr="[res=120]{&#10;\[&#10;&#10;&#10;&#10;-tan|\beta-\alpha|=|tan(\beta-\alpha)|&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -11884,7 +13621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BB36"/>
   <sheetViews>
@@ -12056,43 +13793,43 @@
     </row>
     <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="7"/>
-      <c r="X10" s="48" t="s">
+      <c r="X10" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="49"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
     </row>
     <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="7"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="49"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
     </row>
     <row r="12" spans="1:54" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="7"/>
@@ -12328,15 +14065,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF66FFFF"/>
   </sheetPr>
   <dimension ref="A1:BJ48"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12564,6 +14301,7 @@
     </row>
     <row r="12" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G12" s="3"/>
+      <c r="T12"/>
       <c r="AO12" s="2" t="s">
         <v>8</v>
       </c>
@@ -12862,15 +14600,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:BB35"/>
+  <dimension ref="A1:BB46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12947,6 +14685,7 @@
       <c r="C4" s="32" t="s">
         <v>140</v>
       </c>
+      <c r="P4"/>
     </row>
     <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="46" t="s">
@@ -12957,96 +14696,138 @@
       <c r="C8" s="45" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="47" t="s">
+      <c r="V8"/>
+    </row>
+    <row r="9" spans="1:54" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V9"/>
+    </row>
+    <row r="10" spans="1:54" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V10"/>
+    </row>
+    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="47" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="46" t="s">
+      <c r="V11"/>
+    </row>
+    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="45"/>
-    </row>
-    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="45"/>
-      <c r="C12" s="45" t="s">
+      <c r="C13" s="45"/>
+    </row>
+    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="46" t="s">
+      <c r="U14"/>
+    </row>
+    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="46" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="32" t="s">
+    <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="46" t="s">
+    <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="46" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="32" t="s">
+    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="32" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22"/>
-      <c r="C22" s="32" t="s">
+    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24"/>
+      <c r="C24" s="32" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="32" t="s">
+    <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="32" t="s">
+    <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="32" t="s">
+    <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="32" t="s">
+    <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="32" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="32" t="s">
+    <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="32" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="32" t="s">
+    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="32" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="32" t="s">
+    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="32" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="47" t="s">
+    <row r="36" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="47"/>
-    </row>
-    <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="47"/>
-      <c r="C35" s="47" t="s">
+      <c r="C36" s="47"/>
+    </row>
+    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="47"/>
+      <c r="C37" s="47" t="s">
         <v>154</v>
       </c>
+    </row>
+    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="L40"/>
+    </row>
+    <row r="42" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K43"/>
+    </row>
+    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="K46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -13061,7 +14842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
@@ -13945,7 +15726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BD116"/>
   <sheetViews>
@@ -15271,7 +17052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BD116"/>
   <sheetViews>

--- a/◆数学_演習帳◆_部品共通.xlsx
+++ b/◆数学_演習帳◆_部品共通.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roshi_000.000\MyImp\MyOwn\学習\数学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0B5553-8070-438E-B597-16A33589B77E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4A7612-C8E8-487E-854A-B19E06DAC342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,11 @@
     <sheet name="◆NewSheet◆" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数式!$A$3:$BD$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">数式!$A$3:$BA$254</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">◆NewSheet◆!$A:$BB</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">カメラ!$A:$BB</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">決まり事項!$A:$BB</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">数式!$A:$BB</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">数式!$A:$AY</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">部品!$A:$BB</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">◆NewSheet◆!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">カメラ!$1:$2</definedName>
@@ -34,6 +34,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">部品!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="210">
   <si>
     <t>２行用</t>
     <rPh sb="1" eb="2">
@@ -863,72 +864,6 @@
   </si>
   <si>
     <t>ベクトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>\left(\begin{array}{ccc} x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>end{array}\right)</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1124,48 +1059,212 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>\overrightarrow{}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\perp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平行</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\parallel</t>
+  </si>
+  <si>
+    <t>垂直方向にSPACE挿入</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\vspace{2pt}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平方向にSPACE挿入</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\hspace{0pt}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右矢印</t>
+    <rPh sb="0" eb="3">
+      <t>ミギヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\implies</t>
+  </si>
+  <si>
+    <t>両矢印</t>
+    <rPh sb="0" eb="3">
+      <t>リョウヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\iff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左矢印</t>
+    <rPh sb="0" eb="3">
+      <t>ヒダリヤジルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\impliedby</t>
+  </si>
+  <si>
+    <t>累乗前ブランク</t>
+    <rPh sb="0" eb="2">
+      <t>ルイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a_0\hspace{0pt}^2</t>
+  </si>
+  <si>
+    <t>\begin{bmatrix}</t>
+  </si>
+  <si>
+    <t>\end{bmatrix}</t>
+  </si>
+  <si>
+    <t>\begin{matrix}</t>
+  </si>
+  <si>
+    <t>\end{matrix}</t>
+  </si>
+  <si>
+    <t>マトリックス①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\begin{pmatrix}</t>
+  </si>
+  <si>
+    <t>\end{pmatrix}</t>
+  </si>
+  <si>
+    <t>マトリックス②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マトリックス③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\begin{vmatrix}</t>
+  </si>
+  <si>
+    <t>\end{vmatrix}</t>
+  </si>
+  <si>
+    <t>マトリックス④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\begin{Vmatrix}</t>
+  </si>
+  <si>
+    <t>\end{Vmatrix}</t>
+  </si>
+  <si>
+    <t>マトリックス⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\begin{array}{cccc}</t>
+  </si>
+  <si>
+    <t>\end{array}</t>
+  </si>
+  <si>
+    <t>マトリックス⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\left(</t>
+  </si>
+  <si>
+    <t>\right)</t>
+  </si>
+  <si>
+    <t>\begin{array}{ccc}</t>
+  </si>
+  <si>
+    <t>３行３列成分①</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３行３列成分②</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> x\\</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> y\\</t>
+  </si>
+  <si>
     <r>
-      <t>\left(\begin{array}{ccc} x_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">\ \ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>x_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">\ \ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>x_3</t>
+      <t xml:space="preserve"> x</t>
     </r>
     <r>
       <rPr>
@@ -1177,55 +1276,11 @@
       </rPr>
       <t>\\</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> y_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">\ \ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>y_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">\ \ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>y_3</t>
+      <t xml:space="preserve"> y</t>
     </r>
     <r>
       <rPr>
@@ -1237,296 +1292,11 @@
       </rPr>
       <t>\\</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> z_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">\ \ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>z_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">\ \ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>z_3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>end{array}\right)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\overrightarrow{}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 累乗前ブランク</t>
-    <rPh sb="1" eb="3">
-      <t>ルイジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>垂直</t>
-    <rPh sb="0" eb="2">
-      <t>スイチョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\perp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平行</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\parallel</t>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 行 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color theme="1"/>
-        <rFont val="HGS明朝B"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 列成分</t>
-    </r>
-    <rPh sb="2" eb="3">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 行 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color theme="1"/>
-        <rFont val="HGS明朝B"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 列成分</t>
-    </r>
-    <rPh sb="2" eb="3">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 行 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color theme="1"/>
-        <rFont val="HGS明朝B"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 列成分</t>
-    </r>
-    <rPh sb="2" eb="3">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 行 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color theme="1"/>
-        <rFont val="HGS明朝B"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 列成分</t>
-    </r>
-    <rPh sb="2" eb="3">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>\left(\begin{array}{cc} x</t>
+      <t xml:space="preserve"> x_1\ \ x_2\ \ x_3</t>
     </r>
     <r>
       <rPr>
@@ -1538,15 +1308,11 @@
       </rPr>
       <t>\\</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> y</t>
+      <t xml:space="preserve"> y_1\ \ y_2\ \ y_3</t>
     </r>
     <r>
       <rPr>
@@ -1556,95 +1322,327 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>\</t>
+      <t>\\</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\end{array}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>a_{11} &amp; a_{12} &amp;\dots &amp; a_{1n}</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="ＭＳ 明朝"/>
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t>end{array}\right)</t>
+      <t>\\</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>垂直方向にSPACE挿入</t>
-    <rPh sb="0" eb="2">
-      <t>スイチョク</t>
+    <r>
+      <t>a_{21} &amp; a_{22} &amp;\dots &amp; a_{2n}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>\vdots &amp;\vdots &amp; \ddots &amp; \vdots</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>a_{m1} &amp; a_{m2} &amp;\dots &amp; a_{mn}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> z_1\ \ z_2\ \ z_3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３行１列成分①</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウコウ</t>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウニュウ</t>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>\vspace{2pt}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水平方向にSPACE挿入</t>
-    <rPh sb="0" eb="2">
-      <t>スイヘイ</t>
+    <t>３行１列成分②</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウコウ</t>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウニュウ</t>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>\hspace{0pt}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\hspace{0pt}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右矢印</t>
-    <rPh sb="0" eb="3">
-      <t>ミギヤジルシ</t>
+    <t>\begin{array}{cc}</t>
+  </si>
+  <si>
+    <t>２行１列成分①</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>\implies</t>
-  </si>
-  <si>
-    <t>両矢印</t>
-    <rPh sb="0" eb="3">
-      <t>リョウヤジルシ</t>
+    <t>２行１列成分②</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>\iff</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左矢印</t>
-    <rPh sb="0" eb="3">
-      <t>ヒダリヤジルシ</t>
+    <t>２行１列成分③</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>\impliedby</t>
+    <t>２行２列成分①</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> x_1\ \ x_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> y_1\ \ y_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> x_1\ \ x_2\\</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> y_1\ \ y_2\\</t>
+  </si>
+  <si>
+    <t>２行２列成分②</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２行２列成分③</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式複数行</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>フクスウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>G(x,y)=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(!!!)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カッコは 大きさが変更されないカッコでよい場合、\left(, \right) は使用しなくともよい</t>
+    <rPh sb="5" eb="6">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\begin{array}{l}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>pF(x,y)+qG(x,y)=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1700,13 +1698,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11.5"/>
-      <color theme="1"/>
-      <name val="HGS明朝B"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -1856,7 +1847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1995,13 +1986,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -11987,23 +11981,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>21981</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>27696</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>162878</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>54659</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>157382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;a_0\hspace{0pt}^2&#10;\]&#10;&#10;}&#10;">
+        <xdr:cNvPr id="4" name="図 3" descr="[res=400]{&#10;\[&#10;&#10;&#10;\implies&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC098BB-0E89-4BE0-AD20-E6B76FAA9F83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12026,7 +12020,495 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="58616" y="3766038"/>
+          <a:off x="3018692" y="30120980"/>
+          <a:ext cx="237832" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>197826</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>150055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4" descr="[res=400]{&#10;\[&#10;&#10;&#10;\iff&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252A987F-F148-4493-BD78-B3B0E0D22D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3004038" y="30685153"/>
+          <a:ext cx="272122" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1911</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>50651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41916</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>142091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5" descr="[res=400]{&#10;\[&#10;&#10;&#10;\impliedby&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A967F738-824C-451F-8F3F-247A417B2E28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3005949" y="31248689"/>
+          <a:ext cx="237832" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>197826</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>141919</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>151116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6" descr="[res=400]{&#10;\[&#10;&#10;&#10;\overrightarrow{}&#10;&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03262D8-D35B-4751-9AF4-30DFFBD246FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3004038" y="428146"/>
+          <a:ext cx="141919" cy="60008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>70191</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7" descr="[res=400]{&#10;\[&#10;&#10;&#10;\binom{x}{y}&#10;&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F86A7E5-81AD-4203-82B8-3F4AD531A3A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3604845" y="1099038"/>
+          <a:ext cx="260692" cy="382905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>16559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9" descr="[res=400]{&#10;\[&#10;&#10;&#10;\binom{x_1\ \ x_2}{y_1\ \ y_2}&#10;&#10;&#10;&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224FFB2E-097B-4290-A0A5-CFEDC61616C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3597519" y="5114192"/>
+          <a:ext cx="593481" cy="382905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>197826</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>105728</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>157017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11" descr="[res=400]{&#10;\[&#10;&#10;&#10;&#10;\perp&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B412AE9C-102B-4710-A3BC-592215214D7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3004038" y="27820327"/>
+          <a:ext cx="105728" cy="105728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>21982</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>61987</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12" descr="[res=400]{&#10;\[&#10;&#10;&#10;\parallel&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5070FC65-19EC-4378-9788-2B524686E99F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3026020" y="28340538"/>
+          <a:ext cx="40005" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7329</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>13044</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>170205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13" descr="[res=400]{&#10;\[&#10;&#10;a_0\hspace{0pt}^2&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363F0E37-2B72-4B19-AE4B-FFFB1A95610E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3011367" y="27014365"/>
           <a:ext cx="203542" cy="162878"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12048,23 +12530,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>65942</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>47332</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>157382</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>98108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3" descr="[res=400]{&#10;\[&#10;&#10;&#10;\implies&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+        <xdr:cNvPr id="15" name="図 14" descr="[res=400]{&#10;\[&#10;&#10;&#10;\begin{bmatrix}&#10;a_{11} &amp; a_{12} &amp;\dots &amp; a_{1n}\\&#10;a_{21} &amp; a_{22} &amp;\dots &amp; a_{2n}\\&#10;\vdots &amp;\vdots &amp; \ddots &amp; \vdots\\&#10;a_{m1} &amp; a_{m2} &amp;\dots &amp; a_{mn}\\&#10;\end{bmatrix}&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC098BB-0E89-4BE0-AD20-E6B76FAA9F83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83013795-02A3-4D26-A7FD-D86B8DB8CC99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12073,7 +12555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12087,8 +12569,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2220058" y="7260980"/>
-          <a:ext cx="237832" cy="91440"/>
+          <a:off x="3638550" y="4533900"/>
+          <a:ext cx="1611630" cy="860108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12109,23 +12591,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66968</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>150055</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>82868</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>6668</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4" descr="[res=400]{&#10;\[&#10;&#10;&#10;\iff&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+        <xdr:cNvPr id="16" name="図 15" descr="[res=400]{&#10;\[&#10;&#10;&#10;\begin{matrix}&#10;a_{11} &amp; a_{12} &amp;\dots &amp; a_{1n}\\&#10;a_{21} &amp; a_{22} &amp;\dots &amp; a_{2n}\\&#10;\vdots &amp;\vdots &amp; \ddots &amp; \vdots\\&#10;a_{m1} &amp; a_{m2} &amp;\dots &amp; a_{mn}\\&#10;\end{matrix}&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252A987F-F148-4493-BD78-B3B0E0D22D6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6671CC43-0A1B-49FB-979F-67DA7538051A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12134,7 +12616,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12148,8 +12630,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2205404" y="7825153"/>
-          <a:ext cx="272122" cy="91440"/>
+          <a:off x="3638550" y="6057900"/>
+          <a:ext cx="1483043" cy="768668"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12170,23 +12652,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>192411</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>50651</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>34589</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>142091</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>88583</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>98108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5" descr="[res=400]{&#10;\[&#10;&#10;&#10;\impliedby&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+        <xdr:cNvPr id="17" name="図 16" descr="[res=400]{&#10;\[&#10;&#10;&#10;\begin{pmatrix}&#10;a_{11} &amp; a_{12} &amp;\dots &amp; a_{1n}\\&#10;a_{21} &amp; a_{22} &amp;\dots &amp; a_{2n}\\&#10;\vdots &amp;\vdots &amp; \ddots &amp; \vdots\\&#10;a_{m1} &amp; a_{m2} &amp;\dots &amp; a_{mn}\\&#10;\end{pmatrix}&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A967F738-824C-451F-8F3F-247A417B2E28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54AE748-4D3D-425C-BDFA-9108FDDD9DA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12195,7 +12677,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12209,8 +12691,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2207315" y="8388689"/>
-          <a:ext cx="237832" cy="91440"/>
+          <a:off x="3638550" y="7581900"/>
+          <a:ext cx="1688783" cy="860108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12231,23 +12713,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>29309</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>91108</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171228</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>151116</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>162878</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>103823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6" descr="[res=400]{&#10;\[&#10;&#10;&#10;\overrightarrow{}&#10;&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+        <xdr:cNvPr id="18" name="図 17" descr="[res=400]{&#10;\[&#10;&#10;&#10;\begin{vmatrix}&#10;a_{11} &amp; a_{12} &amp;\dots &amp; a_{1n}\\&#10;a_{21} &amp; a_{22} &amp;\dots &amp; a_{2n}\\&#10;\vdots &amp;\vdots &amp; \ddots &amp; \vdots\\&#10;a_{m1} &amp; a_{m2} &amp;\dots &amp; a_{mn}\\&#10;\end{vmatrix}&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03262D8-D35B-4751-9AF4-30DFFBD246FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA866B5-F9F3-4A44-AC27-C445D0A09C2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12256,7 +12738,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12270,8 +12752,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2242040" y="428146"/>
-          <a:ext cx="141919" cy="60008"/>
+          <a:off x="3638550" y="8915400"/>
+          <a:ext cx="1563053" cy="865823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12292,23 +12774,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14654</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>102577</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>77519</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104482</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>31433</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>103823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7" descr="[res=400]{&#10;\[&#10;&#10;&#10;\binom{x}{y}&#10;&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+        <xdr:cNvPr id="19" name="図 18" descr="[res=400]{&#10;\[&#10;&#10;&#10;\begin{Vmatrix}&#10;a_{11} &amp; a_{12} &amp;\dots &amp; a_{1n}\\&#10;a_{21} &amp; a_{22} &amp;\dots &amp; a_{2n}\\&#10;\vdots &amp;\vdots &amp; \ddots &amp; \vdots\\&#10;a_{m1} &amp; a_{m2} &amp;\dots &amp; a_{mn}\\&#10;\end{Vmatrix}&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F86A7E5-81AD-4203-82B8-3F4AD531A3A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6D6EA1-AB16-4961-A0AE-4DEBA893B015}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12317,7 +12799,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12331,7 +12813,434 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2227385" y="1011115"/>
+          <a:off x="3638550" y="10439400"/>
+          <a:ext cx="1631633" cy="865823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>82868</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>6668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19" descr="[res=400]{&#10;\[&#10;&#10;&#10;\begin{array}{cccc}&#10;a_{11} &amp; a_{12} &amp;\dots &amp; a_{1n}\\&#10;a_{21} &amp; a_{22} &amp;\dots &amp; a_{2n}\\&#10;\vdots &amp;\vdots &amp; \ddots &amp; \vdots\\&#10;a_{m1} &amp; a_{m2} &amp;\dots &amp; a_{mn}\\&#10;\end{array}&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF2D873-2B24-4E87-8A13-C73036CE4AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3638550" y="4343400"/>
+          <a:ext cx="1483043" cy="768668"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>40005</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>2858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22" descr="[res=400]{&#10;\[&#10;&#10;\left(&#10;\begin{array}{ccc}&#10; x_1\ \ x_2\ \ x_3\\&#10; y_1\ \ y_2\ \ y_3\\&#10; z_1\ \ z_2\ \ z_3\\&#10;\end{array}&#10;\right)&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30F4683-29D0-4D33-ACF2-2D89BB9B7B68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3638550" y="5295900"/>
+          <a:ext cx="1040130" cy="574358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>82868</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>2858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23" descr="[res=400]{&#10;\[&#10;&#10;\left(&#10;\begin{matrix}&#10; x_1\ \ x_2\ \ x_3\\&#10; y_1\ \ y_2\ \ y_3\\&#10; z_1\ \ z_2\ \ z_3\\&#10;\end{matrix}&#10;\right)&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED1B9D2-2E8A-41B3-A4EC-4C7F23AA11BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3638550" y="7200900"/>
+          <a:ext cx="882968" cy="574358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>2858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24" descr="[res=400]{&#10;\[&#10;&#10;&#10;\left(&#10;\begin{array}{ccc}&#10; x\\&#10; y\\&#10; z\\&#10;\end{array}&#10;\right)&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB99315-050A-4657-A250-970095B86B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3597519" y="3194538"/>
+          <a:ext cx="429944" cy="574358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>77153</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>2858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25" descr="[res=400]{&#10;\[&#10;&#10;\left(&#10;\begin{matrix}&#10; x\\&#10; y\\&#10; z\\&#10;\end{matrix}&#10;\right)&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED5DB3E-2864-4FAB-B1C2-7E61EB920D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3638550" y="4914900"/>
+          <a:ext cx="277178" cy="574358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>29309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26" descr="[res=400]{&#10;\[&#10;&#10;\left(&#10;\begin{array}{cc}&#10; x\\&#10; y\\&#10;\end{array}&#10;\right)&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C93ED7F6-5FF0-4F62-8C81-CF1680BEA964}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3597519" y="1890347"/>
+          <a:ext cx="412799" cy="382905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>70191</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27" descr="[res=400]{&#10;\[&#10;&#10;\left(&#10;\begin{matrix}&#10; x\\&#10; y\\&#10;\end{matrix}&#10;\right)&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD1AD66-7702-4F7A-9844-CE46E29FAFF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3604845" y="3385039"/>
           <a:ext cx="260692" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12353,23 +13262,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>102577</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>197826</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>24472</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104482</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8" descr="[res=400]{&#10;\[&#10;&#10;&#10;\left(\begin{array}{cc} x\\ y\end{array}\right)&#10;&#10;&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+        <xdr:cNvPr id="29" name="図 28" descr="[res=400]{&#10;\[&#10;&#10;\left(&#10;\begin{array}{cc}&#10; x_1\ \ x_2\\&#10; y_1\ \ y_2\\&#10;\end{array}&#10;\right)&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89B2548-37F7-4A05-B3DA-F9056CBF04A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4F3974-A7C9-4CA2-BBF1-D6C94B581E4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12378,7 +13287,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12392,8 +13301,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3802673" y="1582615"/>
-          <a:ext cx="412799" cy="382905"/>
+          <a:off x="3597518" y="5671039"/>
+          <a:ext cx="750644" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12414,23 +13323,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>102577</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104482</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9" descr="[res=400]{&#10;\[&#10;&#10;&#10;\binom{x_1\ \ x_2}{y_1\ \ y_2}&#10;&#10;&#10;&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+        <xdr:cNvPr id="30" name="図 29" descr="[res=400]{&#10;\[&#10;&#10;\left(&#10;\begin{matrix}&#10; x_1\ \ x_2\\&#10; y_1\ \ y_2\\&#10;\end{matrix}&#10;\right)&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224FFB2E-097B-4290-A0A5-CFEDC61616C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282CF49C-3385-4D25-A7FE-1524B606AC89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12439,7 +13348,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12453,8 +13362,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3795347" y="2154115"/>
+          <a:off x="3597519" y="7004539"/>
           <a:ext cx="593481" cy="382905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>158116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31" descr="[res=400]{&#10;\[&#10;&#10;&#10;\begin{array}{l}&#10;pF(x,y)+qG(x,y)=0\\&#10;G(x,y)=0\\&#10;\end{array}&#10;&#10;&#10;&#10;&#10;&#10;\]&#10;&#10;}&#10;">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9C40FE-3AC3-4E9C-9903-45ABCE6A8D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3038475" y="1104901"/>
+          <a:ext cx="1623060" cy="348615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13793,43 +14763,43 @@
     </row>
     <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="7"/>
-      <c r="X10" s="49" t="s">
+      <c r="X10" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
     </row>
     <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="7"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="51"/>
+      <c r="AJ11" s="51"/>
+      <c r="AK11" s="51"/>
+      <c r="AL11" s="51"/>
+      <c r="AM11" s="51"/>
     </row>
     <row r="12" spans="1:54" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="7"/>
@@ -14604,7 +15574,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:BB46"/>
+  <dimension ref="A1:AY166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -14614,12 +15584,13 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="0.5" style="32" customWidth="1"/>
-    <col min="2" max="16384" width="2.625" style="32"/>
+    <col min="2" max="2" width="2.625" style="35"/>
+    <col min="3" max="16384" width="2.625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:51" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -14669,165 +15640,925 @@
       <c r="AW1" s="6"/>
       <c r="AX1" s="6"/>
       <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-    </row>
-    <row r="2" spans="1:54" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:51" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="35" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="35"/>
+    </row>
+    <row r="7" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="35"/>
+      <c r="C8" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="35"/>
+      <c r="C9" s="48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="35"/>
+      <c r="C10" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="35"/>
+      <c r="C11" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q11" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="S11" s="48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="35"/>
+    </row>
+    <row r="14" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="S15"/>
+    </row>
+    <row r="16" spans="1:51" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="35"/>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="2:19" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="35"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="35"/>
+      <c r="C19" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="35"/>
+      <c r="C20" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="35"/>
+      <c r="C21" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21"/>
+    </row>
+    <row r="22" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="S23"/>
+    </row>
+    <row r="24" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="S24"/>
+    </row>
+    <row r="25" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="35"/>
+      <c r="C27" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="R27"/>
+      <c r="S27"/>
+    </row>
+    <row r="28" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="35"/>
+      <c r="C28" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="S28"/>
+    </row>
+    <row r="29" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="35"/>
+      <c r="C29" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="S29"/>
+    </row>
+    <row r="30" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="35"/>
+      <c r="C30" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="S30"/>
+    </row>
+    <row r="31" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="35"/>
+      <c r="C31" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="S31"/>
+    </row>
+    <row r="32" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="35"/>
+      <c r="C32" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="S32"/>
+    </row>
+    <row r="33" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="35"/>
+      <c r="S33"/>
+    </row>
+    <row r="35" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="45"/>
+    </row>
+    <row r="36" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="R36"/>
+    </row>
+    <row r="38" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="35"/>
+    </row>
+    <row r="39" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="35"/>
+      <c r="C40" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="R40"/>
+    </row>
+    <row r="41" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="35"/>
+      <c r="C41" s="48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="35"/>
+      <c r="C42" s="48" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="35"/>
+      <c r="C43" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="35"/>
+      <c r="C44" s="48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="35"/>
+      <c r="C45" s="48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="35"/>
+    </row>
+    <row r="47" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="R47"/>
+    </row>
+    <row r="48" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="35"/>
+      <c r="C48" s="48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="35"/>
+      <c r="C49" s="48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="35"/>
+      <c r="C50" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="35"/>
+      <c r="C51" s="48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="35"/>
+      <c r="C52" s="48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="35"/>
+      <c r="C53" s="48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="35"/>
+    </row>
+    <row r="56" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="35"/>
+      <c r="C58" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="R58"/>
+    </row>
+    <row r="59" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="35"/>
+      <c r="C59" s="48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="35"/>
+      <c r="C60" s="48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="35"/>
+      <c r="C61" s="48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="35"/>
+      <c r="C62" s="48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="35"/>
+      <c r="C63" s="48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="35"/>
+      <c r="C64" s="48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="35"/>
+    </row>
+    <row r="66" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="35"/>
+      <c r="C67" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q67"/>
+    </row>
+    <row r="68" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="35"/>
+      <c r="C68" s="48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="35"/>
+      <c r="C69" s="48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="35"/>
+      <c r="C70" s="48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="35"/>
+      <c r="C71" s="48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="35"/>
+      <c r="C72" s="48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="35"/>
+      <c r="C73" s="48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA74" s="48"/>
+    </row>
+    <row r="75" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA75" s="48"/>
+    </row>
+    <row r="76" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA76" s="48"/>
+    </row>
+    <row r="77" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="35"/>
+      <c r="C77" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM77"/>
+    </row>
+    <row r="78" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="35"/>
+      <c r="C78" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q78"/>
+      <c r="AM78"/>
+    </row>
+    <row r="79" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="35"/>
+      <c r="C79" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM79"/>
+    </row>
+    <row r="80" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="35"/>
+      <c r="C80" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM80"/>
+    </row>
+    <row r="81" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="35"/>
+      <c r="C81" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM81"/>
+    </row>
+    <row r="82" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="35"/>
+      <c r="C82" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM82"/>
+    </row>
+    <row r="83" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="35"/>
+      <c r="C83" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM83"/>
+    </row>
+    <row r="84" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="35"/>
+      <c r="AM84"/>
+    </row>
+    <row r="85" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="35"/>
+      <c r="AM85"/>
+    </row>
+    <row r="86" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM86"/>
+    </row>
+    <row r="87" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="35"/>
+      <c r="C87" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM87"/>
+    </row>
+    <row r="88" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="35"/>
+      <c r="C88" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q88"/>
+      <c r="AM88"/>
+    </row>
+    <row r="89" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="35"/>
+      <c r="C89" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM89"/>
+    </row>
+    <row r="90" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="35"/>
+      <c r="C90" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM90"/>
+    </row>
+    <row r="91" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="35"/>
+      <c r="C91" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM91"/>
+    </row>
+    <row r="92" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="35"/>
+      <c r="C92" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM92"/>
+    </row>
+    <row r="93" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="35"/>
+      <c r="C93" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM93"/>
+    </row>
+    <row r="94" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="35"/>
+      <c r="AM94"/>
+    </row>
+    <row r="95" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM95"/>
+    </row>
+    <row r="96" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="35"/>
+      <c r="C96" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q96"/>
+      <c r="AM96"/>
+    </row>
+    <row r="97" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="35"/>
+      <c r="C97" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM97"/>
+    </row>
+    <row r="98" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="35"/>
+      <c r="C98" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM98"/>
+    </row>
+    <row r="99" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="35"/>
+      <c r="C99" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM99"/>
+    </row>
+    <row r="100" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="35"/>
+      <c r="C100" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM100"/>
+    </row>
+    <row r="101" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="35"/>
+      <c r="C101" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM101"/>
+    </row>
+    <row r="102" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="35"/>
+      <c r="AM102"/>
+    </row>
+    <row r="103" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM103"/>
+    </row>
+    <row r="104" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="35"/>
+      <c r="C104" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM104"/>
+    </row>
+    <row r="105" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="35"/>
+      <c r="C105" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q105"/>
+      <c r="AM105"/>
+    </row>
+    <row r="106" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="35"/>
+      <c r="C106" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM106"/>
+    </row>
+    <row r="107" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="35"/>
+      <c r="C107" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM107"/>
+    </row>
+    <row r="108" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="35"/>
+      <c r="C108" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM108"/>
+    </row>
+    <row r="109" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="35"/>
+      <c r="C109" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM109"/>
+    </row>
+    <row r="110" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="35"/>
+      <c r="AM110"/>
+    </row>
+    <row r="111" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM111"/>
+    </row>
+    <row r="112" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="35"/>
+      <c r="C112" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM112"/>
+    </row>
+    <row r="113" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="35"/>
+      <c r="C113" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q113"/>
+      <c r="AM113"/>
+    </row>
+    <row r="114" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="35"/>
+      <c r="C114" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM114"/>
+    </row>
+    <row r="115" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="35"/>
+      <c r="C115" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM115"/>
+    </row>
+    <row r="116" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="35"/>
+      <c r="C116" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM116"/>
+    </row>
+    <row r="117" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="35"/>
+      <c r="C117" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM117"/>
+    </row>
+    <row r="118" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="35"/>
+      <c r="AM118"/>
+    </row>
+    <row r="119" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM119"/>
+    </row>
+    <row r="120" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="35"/>
+      <c r="C120" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM120"/>
+    </row>
+    <row r="121" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="35"/>
+      <c r="C121" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q121"/>
+      <c r="AM121"/>
+    </row>
+    <row r="122" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="35"/>
+      <c r="C122" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM122"/>
+    </row>
+    <row r="123" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="35"/>
+      <c r="C123" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM123"/>
+    </row>
+    <row r="124" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="35"/>
+      <c r="C124" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM124"/>
+    </row>
+    <row r="125" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="35"/>
+      <c r="C125" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM125"/>
+    </row>
+    <row r="126" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="35"/>
+      <c r="AM126"/>
+    </row>
+    <row r="127" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM127"/>
+    </row>
+    <row r="128" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="35"/>
+      <c r="C128" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q128"/>
+      <c r="AM128"/>
+    </row>
+    <row r="129" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="35"/>
+      <c r="C129" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM129"/>
+    </row>
+    <row r="130" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="35"/>
+      <c r="C130" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM130"/>
+    </row>
+    <row r="131" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="35"/>
+      <c r="C131" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM131"/>
+    </row>
+    <row r="132" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="35"/>
+      <c r="C132" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM132"/>
+    </row>
+    <row r="133" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="35"/>
+      <c r="C133" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM133"/>
+    </row>
+    <row r="134" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="35"/>
+      <c r="AM134"/>
+    </row>
+    <row r="135" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM135"/>
+    </row>
+    <row r="136" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="35"/>
+      <c r="C136" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q136"/>
+      <c r="AM136"/>
+    </row>
+    <row r="137" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B137" s="35"/>
+      <c r="C137" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM137"/>
+    </row>
+    <row r="138" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B138" s="35"/>
+      <c r="C138" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM138"/>
+    </row>
+    <row r="139" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="35"/>
+      <c r="C139" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM139"/>
+    </row>
+    <row r="140" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="35"/>
+      <c r="C140" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM140"/>
+    </row>
+    <row r="141" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="35"/>
+      <c r="C141" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM141"/>
+    </row>
+    <row r="142" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="35"/>
+      <c r="AM142"/>
+    </row>
+    <row r="144" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C145" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="O145"/>
+    </row>
+    <row r="147" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="P4"/>
-    </row>
-    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="46" t="s">
+      <c r="L148"/>
+    </row>
+    <row r="150" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B150" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="J151"/>
+    </row>
+    <row r="153" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B153" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="154" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C154" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B156" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C156" s="46"/>
+    </row>
+    <row r="157" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C157" s="46" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="V8"/>
-    </row>
-    <row r="9" spans="1:54" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V9"/>
-    </row>
-    <row r="10" spans="1:54" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V10"/>
-    </row>
-    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="47" t="s">
+    <row r="159" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C160" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="L160"/>
+    </row>
+    <row r="162" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C163" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="V11"/>
-    </row>
-    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="45"/>
-    </row>
-    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="45"/>
-      <c r="C14" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="U14"/>
-    </row>
-    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24"/>
-      <c r="C24" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="32" t="s">
+      <c r="K163"/>
+    </row>
+    <row r="165" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="35" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="32" t="s">
+    <row r="166" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C166" s="47" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="47"/>
-    </row>
-    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="47"/>
-      <c r="C37" s="47" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="L40"/>
-    </row>
-    <row r="42" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K43"/>
-    </row>
-    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="K46"/>
+      <c r="K166"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/◆数学_演習帳◆_部品共通.xlsx
+++ b/◆数学_演習帳◆_部品共通.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roshi_000.000\MyImp\MyOwn\学習\数学\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6abdba127392b43c/MyOwn/学習/数学/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4A7612-C8E8-487E-854A-B19E06DAC342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1F4A7612-C8E8-487E-854A-B19E06DAC342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{568D5B38-13C5-4E1F-9630-53A0B9AE9CEB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="決まり事項" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">部品!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="211">
   <si>
     <t>２行用</t>
     <rPh sb="1" eb="2">
@@ -1635,6 +1634,10 @@
       </rPr>
       <t>\\</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←left</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1847,161 +1850,98 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14593,431 +14533,395 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BB36"/>
+  <dimension ref="A1:BB34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.5" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="2.625" style="4"/>
+    <col min="1" max="1" width="0.5" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-    </row>
-    <row r="2" spans="1:54" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F3" s="7"/>
-    </row>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+    </row>
+    <row r="2" spans="1:54" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="X4" s="4" t="s">
+      <c r="D4"/>
+      <c r="L4"/>
+      <c r="X4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F5" s="7"/>
-    </row>
     <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="X6" s="4" t="s">
+      <c r="D6"/>
+      <c r="X6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:54" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F7" s="7"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="39"/>
-      <c r="AX7" s="39"/>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39"/>
-    </row>
-    <row r="8" spans="1:54" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F8" s="7"/>
-      <c r="X8" s="39" t="s">
+    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="26"/>
+      <c r="AV7" s="26"/>
+      <c r="AW7" s="26"/>
+      <c r="AX7" s="26"/>
+      <c r="AY7" s="26"/>
+      <c r="AZ7" s="26"/>
+      <c r="BA7" s="26"/>
+      <c r="BB7" s="26"/>
+    </row>
+    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39" t="s">
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="39"/>
-      <c r="AT8" s="39"/>
-      <c r="AU8" s="39"/>
-      <c r="AV8" s="39"/>
-      <c r="AW8" s="39"/>
-      <c r="AX8" s="39"/>
-      <c r="AY8" s="39"/>
-      <c r="AZ8" s="39"/>
-      <c r="BA8" s="39"/>
-      <c r="BB8" s="39"/>
-    </row>
-    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F9" s="7"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="26"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="26"/>
+      <c r="AU8" s="26"/>
+      <c r="AV8" s="26"/>
+      <c r="AW8" s="26"/>
+      <c r="AX8" s="26"/>
+      <c r="AY8" s="26"/>
+      <c r="AZ8" s="26"/>
+      <c r="BA8" s="26"/>
+      <c r="BB8" s="26"/>
     </row>
     <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F10" s="7"/>
-      <c r="X10" s="50" t="s">
+      <c r="X10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
-      <c r="AL10" s="51"/>
-      <c r="AM10" s="51"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
     </row>
     <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F11" s="7"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="51"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
-      <c r="AK11" s="51"/>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="51"/>
-    </row>
-    <row r="12" spans="1:54" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F12" s="7"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-    </row>
-    <row r="13" spans="1:54" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+    </row>
+    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+    </row>
+    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13"/>
-      <c r="F13" s="7"/>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="X13" s="39" t="s">
+      <c r="X13" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
     </row>
     <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G14" s="7"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="39"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="39"/>
-      <c r="AP14" s="39"/>
-      <c r="AQ14" s="39"/>
-      <c r="AR14" s="39"/>
-      <c r="AS14" s="39"/>
-      <c r="AT14" s="39"/>
-      <c r="AU14" s="39"/>
-      <c r="AV14" s="39"/>
-      <c r="AW14" s="39"/>
-      <c r="AX14" s="39"/>
-      <c r="AY14" s="39"/>
-      <c r="AZ14" s="39"/>
-      <c r="BA14" s="39"/>
-      <c r="BB14" s="39"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="26"/>
+      <c r="AU14" s="26"/>
+      <c r="AV14" s="26"/>
+      <c r="AW14" s="26"/>
+      <c r="AX14" s="26"/>
+      <c r="AY14" s="26"/>
+      <c r="AZ14" s="26"/>
+      <c r="BA14" s="26"/>
+      <c r="BB14" s="26"/>
     </row>
     <row r="15" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G15" s="7"/>
-      <c r="X15" s="4" t="s">
+      <c r="X15" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G16" s="7"/>
-    </row>
     <row r="17" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G17" s="7"/>
-      <c r="X17" s="4" t="s">
+      <c r="X17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G18" s="7"/>
-      <c r="X18" s="4" t="s">
+      <c r="X18" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20"/>
-      <c r="X20" s="4" t="s">
+      <c r="X20" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="3:27" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21"/>
     </row>
-    <row r="23" spans="3:27" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="34" t="s">
+    <row r="23" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="3:27" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="35" t="s">
+    <row r="24" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:27" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F25" s="35" t="s">
+    <row r="25" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="N25" s="35" t="s">
+      <c r="N25" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="3:27" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="3:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="33" t="s">
+    <row r="27" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="3:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="35" t="s">
+    </row>
+    <row r="28" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="3:27" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="35"/>
-      <c r="F29" s="35" t="s">
+    </row>
+    <row r="29" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="25"/>
+      <c r="F29" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="N29" s="35" t="s">
+      <c r="N29" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="S29" s="35" t="s">
+      <c r="S29" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="U29" s="35" t="s">
+      <c r="U29" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AA32" s="43"/>
+      <c r="AA32" s="27"/>
     </row>
     <row r="33" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q33" s="42" t="s">
+      <c r="Q33" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q34" s="42" t="s">
+      <c r="Q34" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q36" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15108,54 +15012,49 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="1:62" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F3" s="3"/>
-    </row>
+    <row r="2" spans="1:62" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26"/>
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="26"/>
+      <c r="BG4" s="26"/>
     </row>
     <row r="5" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="40"/>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="40"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="26"/>
+      <c r="BA5" s="26"/>
     </row>
     <row r="6" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AR6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AV6" s="44"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="44"/>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="44"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
       <c r="BD6" s="2" t="s">
         <v>79</v>
       </c>
@@ -15173,11 +15072,11 @@
       </c>
     </row>
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
       <c r="BD7" s="2" t="s">
         <v>84</v>
       </c>
@@ -15192,11 +15091,11 @@
       <c r="AQ8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
       <c r="BD8" s="2" t="s">
         <v>87</v>
       </c>
@@ -15214,12 +15113,11 @@
       </c>
     </row>
     <row r="9" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G9" s="3"/>
-      <c r="AW9" s="44"/>
-      <c r="AX9" s="44"/>
-      <c r="AY9" s="44"/>
-      <c r="AZ9" s="44"/>
-      <c r="BA9" s="44"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BA9" s="3"/>
       <c r="BD9" s="2" t="s">
         <v>92</v>
       </c>
@@ -15240,11 +15138,11 @@
       <c r="AP10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="44"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
       <c r="BD10" s="2" t="s">
         <v>97</v>
       </c>
@@ -15262,24 +15160,22 @@
       </c>
     </row>
     <row r="11" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G11" s="3"/>
-      <c r="AW11" s="44"/>
-      <c r="AX11" s="44"/>
-      <c r="AY11" s="44"/>
-      <c r="AZ11" s="44"/>
-      <c r="BA11" s="44"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
     </row>
     <row r="12" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G12" s="3"/>
       <c r="T12"/>
       <c r="AO12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
       <c r="BD12" s="2" t="s">
         <v>102</v>
       </c>
@@ -15297,12 +15193,11 @@
       </c>
     </row>
     <row r="13" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G13" s="3"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
       <c r="BD13" s="2" t="s">
         <v>107</v>
       </c>
@@ -15317,11 +15212,11 @@
       <c r="AN14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
       <c r="BD14" s="2" t="s">
         <v>110</v>
       </c>
@@ -15337,15 +15232,14 @@
       <c r="BH14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BJ14" s="44"/>
+      <c r="BJ14" s="3"/>
     </row>
     <row r="15" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G15" s="3"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="44"/>
-      <c r="AY15" s="44"/>
-      <c r="AZ15" s="44"/>
-      <c r="BA15" s="44"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
       <c r="BD15" s="2" t="s">
         <v>115</v>
       </c>
@@ -15366,15 +15260,14 @@
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="3"/>
       <c r="AM16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AW16"/>
       <c r="AX16"/>
-      <c r="AY16" s="44"/>
-      <c r="AZ16" s="44"/>
-      <c r="BA16" s="44"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
       <c r="BD16" s="2" t="s">
         <v>133</v>
       </c>
@@ -15391,11 +15284,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="3:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G17" s="3"/>
-    </row>
     <row r="18" spans="3:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G18" s="3"/>
       <c r="AL18" s="2" t="s">
         <v>10</v>
       </c>
@@ -15404,10 +15293,8 @@
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="3:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G20" s="3"/>
       <c r="AK20" s="2" t="s">
         <v>11</v>
       </c>
@@ -15416,12 +15303,11 @@
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="AW21" s="44"/>
-      <c r="AX21" s="44"/>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="44"/>
-      <c r="BA21" s="44"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
       <c r="BD21" s="2" t="s">
         <v>123</v>
       </c>
@@ -15433,15 +15319,14 @@
       </c>
     </row>
     <row r="22" spans="3:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G22" s="3"/>
       <c r="AJ22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="44"/>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="44"/>
-      <c r="BA22" s="44"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
       <c r="BD22" s="2" t="s">
         <v>126</v>
       </c>
@@ -15453,23 +15338,21 @@
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
     </row>
     <row r="24" spans="3:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G24" s="3"/>
       <c r="AI24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AW24" s="40"/>
-      <c r="AX24" s="44"/>
-      <c r="AY24" s="40"/>
-      <c r="AZ24" s="44"/>
-      <c r="BA24" s="40"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="26"/>
       <c r="BD24" s="2" t="s">
         <v>128</v>
       </c>
@@ -15484,11 +15367,11 @@
       <c r="AH26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AW26" s="40"/>
-      <c r="AX26" s="40"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="26"/>
     </row>
     <row r="27" spans="3:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AX27" s="40"/>
+      <c r="AX27" s="26"/>
       <c r="BD27" s="2" t="s">
         <v>33</v>
       </c>
@@ -15576,986 +15459,855 @@
   </sheetPr>
   <dimension ref="A1:AY166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.5" style="32" customWidth="1"/>
-    <col min="2" max="2" width="2.625" style="35"/>
-    <col min="3" max="16384" width="2.625" style="32"/>
+    <col min="1" max="1" width="0.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="25"/>
+    <col min="3" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-    </row>
-    <row r="2" spans="1:51" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F2" s="7"/>
-    </row>
+      <c r="A1" s="5"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+    </row>
+    <row r="2" spans="1:51" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="25" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="35"/>
-    </row>
-    <row r="7" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="25" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
-      <c r="C8" s="48" t="s">
+    <row r="8" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="3" t="s">
         <v>208</v>
       </c>
+      <c r="K8" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="35"/>
-      <c r="C9" s="48" t="s">
+    <row r="9" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="35"/>
-      <c r="C10" s="48" t="s">
+    <row r="10" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="35"/>
-      <c r="C11" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q11" s="48" t="s">
+    <row r="11" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="S11" s="48" t="s">
+      <c r="S11" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:51" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="35"/>
-    </row>
     <row r="14" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="25" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="3" t="s">
         <v>136</v>
       </c>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:51" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="35"/>
+    <row r="16" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S16"/>
     </row>
-    <row r="17" spans="2:19" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="35"/>
+    <row r="17" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S17"/>
     </row>
-    <row r="18" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="35" t="s">
+    <row r="18" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="25" t="s">
         <v>195</v>
       </c>
       <c r="S18"/>
     </row>
-    <row r="19" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="35"/>
-      <c r="C19" s="48" t="s">
+    <row r="19" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="3" t="s">
         <v>173</v>
       </c>
       <c r="S19"/>
     </row>
-    <row r="20" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="35"/>
-      <c r="C20" s="48" t="s">
+    <row r="20" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="3" t="s">
         <v>193</v>
       </c>
       <c r="S20"/>
     </row>
-    <row r="21" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="35"/>
-      <c r="C21" s="48" t="s">
+    <row r="21" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="3" t="s">
         <v>178</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
     </row>
-    <row r="22" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="35"/>
-      <c r="C22" s="48" t="s">
+    <row r="22" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="3" t="s">
         <v>179</v>
       </c>
       <c r="S22"/>
     </row>
-    <row r="23" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="35"/>
-      <c r="C23" s="48" t="s">
+    <row r="23" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="3" t="s">
         <v>171</v>
       </c>
       <c r="S23"/>
     </row>
-    <row r="24" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="35"/>
-      <c r="C24" s="48" t="s">
+    <row r="24" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="3" t="s">
         <v>174</v>
       </c>
       <c r="S24"/>
     </row>
-    <row r="25" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="35"/>
+    <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S25"/>
     </row>
-    <row r="26" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="35" t="s">
+    <row r="26" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="25" t="s">
         <v>196</v>
       </c>
       <c r="S26"/>
     </row>
-    <row r="27" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="35"/>
-      <c r="C27" s="48" t="s">
+    <row r="27" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="3" t="s">
         <v>173</v>
       </c>
       <c r="R27"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="35"/>
-      <c r="C28" s="48" t="s">
+    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="3" t="s">
         <v>157</v>
       </c>
       <c r="S28"/>
     </row>
-    <row r="29" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="35"/>
-      <c r="C29" s="48" t="s">
+    <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="3" t="s">
         <v>178</v>
       </c>
       <c r="S29"/>
     </row>
-    <row r="30" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="35"/>
-      <c r="C30" s="48" t="s">
+    <row r="30" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="3" t="s">
         <v>179</v>
       </c>
       <c r="S30"/>
     </row>
-    <row r="31" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="35"/>
-      <c r="C31" s="48" t="s">
+    <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="3" t="s">
         <v>158</v>
       </c>
       <c r="S31"/>
     </row>
-    <row r="32" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="35"/>
-      <c r="C32" s="48" t="s">
+    <row r="32" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="3" t="s">
         <v>174</v>
       </c>
       <c r="S32"/>
     </row>
-    <row r="33" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="35"/>
+    <row r="33" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S33"/>
     </row>
     <row r="35" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="45"/>
     </row>
     <row r="36" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="3" t="s">
         <v>137</v>
       </c>
       <c r="R36"/>
     </row>
-    <row r="38" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="35"/>
-    </row>
-    <row r="39" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="35" t="s">
+    <row r="39" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="25" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="35"/>
-      <c r="C40" s="48" t="s">
+    <row r="40" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="3" t="s">
         <v>173</v>
       </c>
       <c r="R40"/>
     </row>
-    <row r="41" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="35"/>
-      <c r="C41" s="48" t="s">
+    <row r="41" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="35"/>
-      <c r="C42" s="48" t="s">
+    <row r="42" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="35"/>
-      <c r="C43" s="48" t="s">
+    <row r="43" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="35"/>
-      <c r="C44" s="48" t="s">
+    <row r="44" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="35"/>
-      <c r="C45" s="48" t="s">
+    <row r="45" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="35"/>
-    </row>
-    <row r="47" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="35" t="s">
+    <row r="47" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="25" t="s">
         <v>203</v>
       </c>
       <c r="R47"/>
     </row>
-    <row r="48" spans="2:19" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="35"/>
-      <c r="C48" s="48" t="s">
+    <row r="48" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="35"/>
-      <c r="C49" s="48" t="s">
+    <row r="49" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="35"/>
-      <c r="C50" s="48" t="s">
+    <row r="50" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="35"/>
-      <c r="C51" s="48" t="s">
+    <row r="51" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="35"/>
-      <c r="C52" s="48" t="s">
+    <row r="52" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="35"/>
-      <c r="C53" s="48" t="s">
+    <row r="53" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="35"/>
-    </row>
     <row r="56" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="25" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="35"/>
-      <c r="C58" s="48" t="s">
+    <row r="58" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="3" t="s">
         <v>173</v>
       </c>
       <c r="R58"/>
     </row>
-    <row r="59" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="35"/>
-      <c r="C59" s="48" t="s">
+    <row r="59" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="35"/>
-      <c r="C60" s="48" t="s">
+    <row r="60" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="35"/>
-      <c r="C61" s="48" t="s">
+    <row r="61" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="35"/>
-      <c r="C62" s="48" t="s">
+    <row r="62" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="35"/>
-      <c r="C63" s="48" t="s">
+    <row r="63" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="2:18" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="35"/>
-      <c r="C64" s="48" t="s">
+    <row r="64" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="35"/>
-    </row>
-    <row r="66" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="35" t="s">
+    <row r="66" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="25" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="35"/>
-      <c r="C67" s="48" t="s">
+    <row r="67" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="3" t="s">
         <v>173</v>
       </c>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="35"/>
-      <c r="C68" s="48" t="s">
+    <row r="68" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="35"/>
-      <c r="C69" s="48" t="s">
+    <row r="69" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="35"/>
-      <c r="C70" s="48" t="s">
+    <row r="70" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="35"/>
-      <c r="C71" s="48" t="s">
+    <row r="71" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="35"/>
-      <c r="C72" s="48" t="s">
+    <row r="72" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="35"/>
-      <c r="C73" s="48" t="s">
+    <row r="73" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AA74" s="48"/>
-    </row>
-    <row r="75" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AA75" s="48"/>
-    </row>
     <row r="76" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="AA76" s="48"/>
-    </row>
-    <row r="77" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="35"/>
-      <c r="C77" s="48" t="s">
+    </row>
+    <row r="77" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="3" t="s">
         <v>173</v>
       </c>
       <c r="AM77"/>
     </row>
-    <row r="78" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="35"/>
-      <c r="C78" s="48" t="s">
+    <row r="78" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="3" t="s">
         <v>175</v>
       </c>
       <c r="Q78"/>
       <c r="AM78"/>
     </row>
-    <row r="79" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="35"/>
-      <c r="C79" s="48" t="s">
+    <row r="79" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="3" t="s">
         <v>182</v>
       </c>
       <c r="AM79"/>
     </row>
-    <row r="80" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="35"/>
-      <c r="C80" s="48" t="s">
+    <row r="80" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="3" t="s">
         <v>183</v>
       </c>
       <c r="AM80"/>
     </row>
-    <row r="81" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="35"/>
-      <c r="C81" s="48" t="s">
+    <row r="81" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="3" t="s">
         <v>189</v>
       </c>
       <c r="AM81"/>
     </row>
-    <row r="82" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="35"/>
-      <c r="C82" s="48" t="s">
+    <row r="82" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="3" t="s">
         <v>184</v>
       </c>
       <c r="AM82"/>
     </row>
-    <row r="83" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="35"/>
-      <c r="C83" s="48" t="s">
+    <row r="83" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="3" t="s">
         <v>174</v>
       </c>
       <c r="AM83"/>
     </row>
-    <row r="84" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="35"/>
+    <row r="84" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AM84"/>
     </row>
-    <row r="85" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="35"/>
+    <row r="85" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AM85"/>
     </row>
-    <row r="86" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="35" t="s">
+    <row r="86" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="25" t="s">
         <v>177</v>
       </c>
       <c r="AM86"/>
     </row>
-    <row r="87" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="35"/>
-      <c r="C87" s="48" t="s">
+    <row r="87" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="3" t="s">
         <v>173</v>
       </c>
       <c r="AM87"/>
     </row>
-    <row r="88" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="35"/>
-      <c r="C88" s="48" t="s">
+    <row r="88" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="3" t="s">
         <v>157</v>
       </c>
       <c r="Q88"/>
       <c r="AM88"/>
     </row>
-    <row r="89" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="35"/>
-      <c r="C89" s="48" t="s">
+    <row r="89" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="3" t="s">
         <v>182</v>
       </c>
       <c r="AM89"/>
     </row>
-    <row r="90" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="35"/>
-      <c r="C90" s="48" t="s">
+    <row r="90" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="3" t="s">
         <v>183</v>
       </c>
       <c r="AM90"/>
     </row>
-    <row r="91" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="35"/>
-      <c r="C91" s="48" t="s">
+    <row r="91" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="3" t="s">
         <v>189</v>
       </c>
       <c r="AM91"/>
     </row>
-    <row r="92" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="35"/>
-      <c r="C92" s="48" t="s">
+    <row r="92" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="3" t="s">
         <v>158</v>
       </c>
       <c r="AM92"/>
     </row>
-    <row r="93" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="35"/>
-      <c r="C93" s="48" t="s">
+    <row r="93" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="3" t="s">
         <v>174</v>
       </c>
       <c r="AM93"/>
     </row>
-    <row r="94" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="35"/>
+    <row r="94" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AM94"/>
     </row>
-    <row r="95" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="35" t="s">
+    <row r="95" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="25" t="s">
         <v>159</v>
       </c>
       <c r="AM95"/>
     </row>
-    <row r="96" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="35"/>
-      <c r="C96" s="48" t="s">
+    <row r="96" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="3" t="s">
         <v>170</v>
       </c>
       <c r="Q96"/>
       <c r="AM96"/>
     </row>
-    <row r="97" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="35"/>
-      <c r="C97" s="48" t="s">
+    <row r="97" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="3" t="s">
         <v>185</v>
       </c>
       <c r="AM97"/>
     </row>
-    <row r="98" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="35"/>
-      <c r="C98" s="48" t="s">
+    <row r="98" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="3" t="s">
         <v>186</v>
       </c>
       <c r="AM98"/>
     </row>
-    <row r="99" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="35"/>
-      <c r="C99" s="48" t="s">
+    <row r="99" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="3" t="s">
         <v>187</v>
       </c>
       <c r="AM99"/>
     </row>
-    <row r="100" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="35"/>
-      <c r="C100" s="48" t="s">
+    <row r="100" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="3" t="s">
         <v>188</v>
       </c>
       <c r="AM100"/>
     </row>
-    <row r="101" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="35"/>
-      <c r="C101" s="48" t="s">
+    <row r="101" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="3" t="s">
         <v>171</v>
       </c>
       <c r="AM101"/>
     </row>
-    <row r="102" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="35"/>
+    <row r="102" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AM102"/>
     </row>
-    <row r="103" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="35" t="s">
+    <row r="103" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="25" t="s">
         <v>162</v>
       </c>
       <c r="AM103"/>
     </row>
-    <row r="104" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="35"/>
-      <c r="C104" s="48" t="s">
+    <row r="104" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="3" t="s">
         <v>157</v>
       </c>
       <c r="AM104"/>
     </row>
-    <row r="105" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="35"/>
-      <c r="C105" s="48" t="s">
+    <row r="105" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="3" t="s">
         <v>185</v>
       </c>
       <c r="Q105"/>
       <c r="AM105"/>
     </row>
-    <row r="106" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="35"/>
-      <c r="C106" s="48" t="s">
+    <row r="106" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="3" t="s">
         <v>186</v>
       </c>
       <c r="AM106"/>
     </row>
-    <row r="107" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="35"/>
-      <c r="C107" s="48" t="s">
+    <row r="107" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="3" t="s">
         <v>187</v>
       </c>
       <c r="AM107"/>
     </row>
-    <row r="108" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="35"/>
-      <c r="C108" s="48" t="s">
+    <row r="108" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="3" t="s">
         <v>188</v>
       </c>
       <c r="AM108"/>
     </row>
-    <row r="109" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="35"/>
-      <c r="C109" s="48" t="s">
+    <row r="109" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="3" t="s">
         <v>158</v>
       </c>
       <c r="AM109"/>
     </row>
-    <row r="110" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="35"/>
+    <row r="110" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AM110"/>
     </row>
-    <row r="111" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="35" t="s">
+    <row r="111" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="25" t="s">
         <v>163</v>
       </c>
       <c r="AM111"/>
     </row>
-    <row r="112" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="35"/>
-      <c r="C112" s="48" t="s">
+    <row r="112" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="3" t="s">
         <v>160</v>
       </c>
       <c r="AM112"/>
     </row>
-    <row r="113" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="35"/>
-      <c r="C113" s="48" t="s">
+    <row r="113" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="3" t="s">
         <v>185</v>
       </c>
       <c r="Q113"/>
       <c r="AM113"/>
     </row>
-    <row r="114" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="35"/>
-      <c r="C114" s="48" t="s">
+    <row r="114" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="3" t="s">
         <v>186</v>
       </c>
       <c r="AM114"/>
     </row>
-    <row r="115" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="35"/>
-      <c r="C115" s="48" t="s">
+    <row r="115" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="3" t="s">
         <v>187</v>
       </c>
       <c r="AM115"/>
     </row>
-    <row r="116" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="35"/>
-      <c r="C116" s="48" t="s">
+    <row r="116" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="3" t="s">
         <v>188</v>
       </c>
       <c r="AM116"/>
     </row>
-    <row r="117" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="35"/>
-      <c r="C117" s="48" t="s">
+    <row r="117" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="3" t="s">
         <v>161</v>
       </c>
       <c r="AM117"/>
     </row>
-    <row r="118" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="35"/>
+    <row r="118" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AM118"/>
     </row>
-    <row r="119" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="35" t="s">
+    <row r="119" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="25" t="s">
         <v>166</v>
       </c>
       <c r="AM119"/>
     </row>
-    <row r="120" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="35"/>
-      <c r="C120" s="48" t="s">
+    <row r="120" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="3" t="s">
         <v>155</v>
       </c>
       <c r="AM120"/>
     </row>
-    <row r="121" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="35"/>
-      <c r="C121" s="48" t="s">
+    <row r="121" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="3" t="s">
         <v>185</v>
       </c>
       <c r="Q121"/>
       <c r="AM121"/>
     </row>
-    <row r="122" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="35"/>
-      <c r="C122" s="48" t="s">
+    <row r="122" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="3" t="s">
         <v>186</v>
       </c>
       <c r="AM122"/>
     </row>
-    <row r="123" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="35"/>
-      <c r="C123" s="48" t="s">
+    <row r="123" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="3" t="s">
         <v>187</v>
       </c>
       <c r="AM123"/>
     </row>
-    <row r="124" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="35"/>
-      <c r="C124" s="48" t="s">
+    <row r="124" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="3" t="s">
         <v>188</v>
       </c>
       <c r="AM124"/>
     </row>
-    <row r="125" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="35"/>
-      <c r="C125" s="48" t="s">
+    <row r="125" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="3" t="s">
         <v>156</v>
       </c>
       <c r="AM125"/>
     </row>
-    <row r="126" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="35"/>
+    <row r="126" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AM126"/>
     </row>
-    <row r="127" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="35" t="s">
+    <row r="127" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="25" t="s">
         <v>169</v>
       </c>
       <c r="AM127"/>
     </row>
-    <row r="128" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="35"/>
-      <c r="C128" s="48" t="s">
+    <row r="128" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="3" t="s">
         <v>164</v>
       </c>
       <c r="Q128"/>
       <c r="AM128"/>
     </row>
-    <row r="129" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="35"/>
-      <c r="C129" s="48" t="s">
+    <row r="129" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="3" t="s">
         <v>185</v>
       </c>
       <c r="AM129"/>
     </row>
-    <row r="130" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="35"/>
-      <c r="C130" s="48" t="s">
+    <row r="130" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="3" t="s">
         <v>186</v>
       </c>
       <c r="AM130"/>
     </row>
-    <row r="131" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="35"/>
-      <c r="C131" s="48" t="s">
+    <row r="131" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="3" t="s">
         <v>187</v>
       </c>
       <c r="AM131"/>
     </row>
-    <row r="132" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="35"/>
-      <c r="C132" s="48" t="s">
+    <row r="132" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="3" t="s">
         <v>188</v>
       </c>
       <c r="AM132"/>
     </row>
-    <row r="133" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="35"/>
-      <c r="C133" s="48" t="s">
+    <row r="133" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="3" t="s">
         <v>165</v>
       </c>
       <c r="AM133"/>
     </row>
-    <row r="134" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="35"/>
+    <row r="134" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AM134"/>
     </row>
-    <row r="135" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="35" t="s">
+    <row r="135" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="25" t="s">
         <v>172</v>
       </c>
       <c r="AM135"/>
     </row>
-    <row r="136" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="35"/>
-      <c r="C136" s="48" t="s">
+    <row r="136" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="3" t="s">
         <v>167</v>
       </c>
       <c r="Q136"/>
       <c r="AM136"/>
     </row>
-    <row r="137" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="35"/>
-      <c r="C137" s="48" t="s">
+    <row r="137" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="3" t="s">
         <v>185</v>
       </c>
       <c r="AM137"/>
     </row>
-    <row r="138" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="35"/>
-      <c r="C138" s="48" t="s">
+    <row r="138" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="3" t="s">
         <v>186</v>
       </c>
       <c r="AM138"/>
     </row>
-    <row r="139" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="35"/>
-      <c r="C139" s="48" t="s">
+    <row r="139" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="3" t="s">
         <v>187</v>
       </c>
       <c r="AM139"/>
     </row>
-    <row r="140" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="35"/>
-      <c r="C140" s="48" t="s">
+    <row r="140" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="3" t="s">
         <v>188</v>
       </c>
       <c r="AM140"/>
     </row>
-    <row r="141" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="35"/>
-      <c r="C141" s="48" t="s">
+    <row r="141" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="3" t="s">
         <v>168</v>
       </c>
       <c r="AM141"/>
     </row>
-    <row r="142" spans="2:39" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="35"/>
+    <row r="142" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AM142"/>
     </row>
     <row r="144" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="35" t="s">
+      <c r="B144" s="25" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="145" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C145" s="32" t="s">
+      <c r="C145" s="3" t="s">
         <v>154</v>
       </c>
       <c r="O145"/>
     </row>
     <row r="147" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="35" t="s">
+      <c r="B147" s="25" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="148" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="32" t="s">
+      <c r="C148" s="3" t="s">
         <v>140</v>
       </c>
       <c r="L148"/>
     </row>
     <row r="150" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B150" s="35" t="s">
+      <c r="B150" s="25" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="151" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C151" s="32" t="s">
+      <c r="C151" s="3" t="s">
         <v>142</v>
       </c>
       <c r="J151"/>
     </row>
     <row r="153" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="35" t="s">
+      <c r="B153" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="154" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="32" t="s">
+      <c r="C154" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="156" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="35" t="s">
+      <c r="B156" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C156" s="46"/>
     </row>
     <row r="157" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C157" s="46" t="s">
+      <c r="C157" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="159" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="35" t="s">
+      <c r="B159" s="25" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="160" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="32" t="s">
+      <c r="C160" s="3" t="s">
         <v>148</v>
       </c>
       <c r="L160"/>
     </row>
     <row r="162" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="35" t="s">
+      <c r="B162" s="25" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="163" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C163" s="32" t="s">
+      <c r="C163" s="3" t="s">
         <v>150</v>
       </c>
       <c r="K163"/>
     </row>
     <row r="165" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="35" t="s">
+      <c r="B165" s="25" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="166" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="47" t="s">
+      <c r="C166" s="3" t="s">
         <v>152</v>
       </c>
       <c r="K166"/>
@@ -16577,7 +16329,7 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:BB84"/>
+  <dimension ref="A1:BB32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -16586,864 +16338,614 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.5" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="2.625" style="10"/>
+    <col min="1" max="1" width="0.5" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-    </row>
-    <row r="2" spans="1:54" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F2" s="7"/>
-    </row>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+    </row>
+    <row r="2" spans="1:54" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
     </row>
     <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
     </row>
     <row r="7" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
     </row>
     <row r="8" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
     </row>
     <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
     </row>
     <row r="10" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
     </row>
     <row r="11" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
     </row>
     <row r="12" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
     </row>
     <row r="13" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
     </row>
     <row r="14" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
     </row>
     <row r="15" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
     </row>
     <row r="16" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-    </row>
-    <row r="17" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-    </row>
-    <row r="18" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-    </row>
-    <row r="19" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-    </row>
-    <row r="20" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-    </row>
-    <row r="21" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H21" s="21" t="s">
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+    </row>
+    <row r="17" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+    </row>
+    <row r="18" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="16"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+    </row>
+    <row r="19" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="19"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+    </row>
+    <row r="20" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+    </row>
+    <row r="21" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-    </row>
-    <row r="22" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-    </row>
-    <row r="23" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-    </row>
-    <row r="24" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-    </row>
-    <row r="25" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-    </row>
-    <row r="26" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-    </row>
-    <row r="27" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-    </row>
-    <row r="28" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-    </row>
-    <row r="29" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-    </row>
-    <row r="30" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-    </row>
-    <row r="31" spans="7:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-    </row>
-    <row r="32" spans="7:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G32" s="7"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-    </row>
-    <row r="33" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G71" s="7"/>
-    </row>
-    <row r="72" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G72" s="7"/>
-    </row>
-    <row r="73" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G73" s="7"/>
-    </row>
-    <row r="74" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G74" s="7"/>
-    </row>
-    <row r="75" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G75" s="7"/>
-    </row>
-    <row r="76" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G76" s="7"/>
-    </row>
-    <row r="77" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G77" s="7"/>
-    </row>
-    <row r="78" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G78" s="7"/>
-    </row>
-    <row r="79" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G79" s="7"/>
-    </row>
-    <row r="80" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G80" s="7"/>
-    </row>
-    <row r="81" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G81" s="7"/>
-    </row>
-    <row r="82" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G82" s="7"/>
-    </row>
-    <row r="83" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G83" s="7"/>
-    </row>
-    <row r="84" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G84" s="7"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="15"/>
+    </row>
+    <row r="22" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="15"/>
+    </row>
+    <row r="23" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+    </row>
+    <row r="24" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+    </row>
+    <row r="25" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+    </row>
+    <row r="26" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+    </row>
+    <row r="27" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="15"/>
+    </row>
+    <row r="28" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="15"/>
+    </row>
+    <row r="29" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+    </row>
+    <row r="30" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="15"/>
+    </row>
+    <row r="31" spans="8:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="15"/>
+    </row>
+    <row r="32" spans="8:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -17468,1305 +16970,976 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.5" style="37" customWidth="1"/>
-    <col min="2" max="16384" width="2.625" style="37"/>
+    <col min="1" max="1" width="0.5" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-    </row>
-    <row r="2" spans="1:56" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F2" s="7"/>
-    </row>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+    </row>
+    <row r="2" spans="1:56" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="BD3" s="37" t="s">
+      <c r="BD3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="BD4" s="37" t="s">
+      <c r="I4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="BD4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="37" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="P5"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3" t="s">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="3"/>
+      <c r="V5" s="2"/>
       <c r="W5"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="BD5" s="37" t="s">
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="BD5" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="2"/>
       <c r="P6"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3" t="s">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="BD6" s="37" t="s">
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="BD6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="P7" s="2"/>
       <c r="Q7"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="BD7" s="37" t="s">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="BD7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="2"/>
       <c r="P8"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3" t="s">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="BD8" s="37" t="s">
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="BD8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="P9" s="2"/>
       <c r="Q9"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="BD9" s="37" t="s">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="BD9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="3"/>
-      <c r="P10" s="3" t="s">
+      <c r="I10" s="2"/>
+      <c r="P10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="2"/>
       <c r="R10"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="BD10" s="37" t="s">
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="BD10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="BD11" s="37" t="s">
+      <c r="I11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="BD11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="2"/>
       <c r="P12"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3" t="s">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V12" s="3"/>
+      <c r="V12" s="2"/>
       <c r="W12"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3" t="s">
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" s="3"/>
+      <c r="AC12" s="2"/>
       <c r="AD12"/>
-      <c r="AE12" s="3"/>
+      <c r="AE12" s="2"/>
       <c r="AF12"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="BD12" s="37" t="s">
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="BD12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3" t="s">
+      <c r="I13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="BD13" s="37" t="s">
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="BD13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="P14" s="2"/>
       <c r="Q14"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="BD14" s="37" t="s">
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="BD14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3" t="s">
+      <c r="I15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="BD15" s="37" t="s">
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="BD15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="P16" s="2"/>
       <c r="Q16"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="BD16" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="3"/>
-      <c r="P17" s="3" t="s">
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="BD16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="2"/>
+      <c r="P17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="2"/>
       <c r="R17"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="BD17" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="BD18" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="BD19" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="BD20" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="BD21" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="BD22" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="BD23" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="BD24" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="BD25" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="BD26" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="BD27" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="BD28" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="BD29" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="BD30" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="BD31" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="BD32" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="BD33" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="BD34" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="BD35" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="BD36" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="BD37" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="BD38" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="BD39" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="BD40" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="BD41" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="BD42" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="BD43" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="BD44" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="BD45" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="BD46" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="BD47" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="BD48" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="BD49" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="BD50" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="BD51" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="BD52" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="BD53" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="BD54" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="BD55" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="BD56" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="BD57" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="BD58" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="BD59" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="BD60" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="BD61" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="BD62" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="BD63" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="BD64" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="BD65" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="BD66" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="BD67" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="BD68" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="BD69" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="BD70" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="BD71" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="BD72" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="BD73" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="BD74" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="BD75" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="BD76" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="BD77" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="BD78" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="BD79" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="BD80" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="BD81" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="BD82" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="BD83" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="BD84" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="BD85" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="BD86" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="BD87" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="BD88" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="BD89" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="BD90" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="BD91" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="BD92" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="BD93" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="BD94" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="BD95" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="BD96" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="BD97" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="BD98" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="BD99" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="BD100" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="BD101" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="BD102" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="BD103" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="BD104" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="BD105" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="106" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="BD106" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="BD107" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="BD108" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="BD109" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="BD110" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="BD111" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="BD112" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="BD113" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="BD114" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="BD115" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="BD116" s="37" t="s">
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="BD17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="BD18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD23" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD28" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD29" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="9:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD33" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD34" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD35" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD36" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD37" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD39" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD40" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD41" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD42" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD43" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD44" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD45" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD46" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD47" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD48" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD49" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD50" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD51" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD52" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD53" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD54" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD55" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD56" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD57" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD58" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD59" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD60" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD61" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD62" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD63" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD64" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD65" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD66" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD67" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD68" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD69" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD70" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD71" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD72" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD73" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD74" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD75" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD76" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD77" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD78" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD79" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD80" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD81" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD82" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD83" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD84" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD85" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD86" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD87" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD88" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD89" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD90" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD91" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD92" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD93" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD94" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD95" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD96" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD97" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD98" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD99" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD100" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD101" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD102" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD103" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD104" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD105" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD106" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD107" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD108" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD109" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD110" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD111" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD112" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD113" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD114" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD115" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="56:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BD116" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -18794,750 +17967,748 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.5" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="2.625" style="4"/>
+    <col min="1" max="1" width="0.5" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-    </row>
-    <row r="2" spans="1:56" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F2" s="7"/>
-    </row>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+    </row>
+    <row r="2" spans="1:56" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G3" s="5"/>
-      <c r="BD3" s="4" t="s">
+      <c r="G3" s="4"/>
+      <c r="BD3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G4" s="5"/>
-      <c r="BD4" s="10" t="s">
+      <c r="G4" s="4"/>
+      <c r="BD4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G5" s="5"/>
-      <c r="BD5" s="10" t="s">
+      <c r="G5" s="4"/>
+      <c r="BD5" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G6" s="5"/>
-      <c r="BD6" s="10" t="s">
+      <c r="G6" s="4"/>
+      <c r="BD6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G7" s="5"/>
-      <c r="BD7" s="10" t="s">
+      <c r="G7" s="4"/>
+      <c r="BD7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G8" s="5"/>
-      <c r="BD8" s="10" t="s">
+      <c r="G8" s="4"/>
+      <c r="BD8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G9" s="5"/>
-      <c r="BD9" s="10" t="s">
+      <c r="G9" s="4"/>
+      <c r="BD9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G10" s="5"/>
-      <c r="BD10" s="10" t="s">
+      <c r="G10" s="4"/>
+      <c r="BD10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G11" s="5"/>
-      <c r="BD11" s="10" t="s">
+      <c r="G11" s="4"/>
+      <c r="BD11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G12" s="5"/>
-      <c r="BD12" s="10" t="s">
+      <c r="G12" s="4"/>
+      <c r="BD12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G13" s="5"/>
-      <c r="BD13" s="10" t="s">
+      <c r="G13" s="4"/>
+      <c r="BD13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G14" s="5"/>
-      <c r="BD14" s="10" t="s">
+      <c r="G14" s="4"/>
+      <c r="BD14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G15" s="5"/>
-      <c r="BD15" s="10" t="s">
+      <c r="G15" s="4"/>
+      <c r="BD15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G16" s="5"/>
-      <c r="BD16" s="10" t="s">
+      <c r="G16" s="4"/>
+      <c r="BD16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G17" s="5"/>
-      <c r="BD17" s="10" t="s">
+      <c r="G17" s="4"/>
+      <c r="BD17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G18" s="5"/>
-      <c r="BD18" s="10" t="s">
+      <c r="G18" s="4"/>
+      <c r="BD18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G19" s="5"/>
-      <c r="BD19" s="10" t="s">
+      <c r="G19" s="4"/>
+      <c r="BD19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G20" s="5"/>
-      <c r="BD20" s="10" t="s">
+      <c r="G20" s="4"/>
+      <c r="BD20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G21" s="5"/>
-      <c r="BD21" s="10" t="s">
+      <c r="G21" s="4"/>
+      <c r="BD21" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G22" s="5"/>
-      <c r="BD22" s="10" t="s">
+      <c r="G22" s="4"/>
+      <c r="BD22" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G23" s="5"/>
-      <c r="BD23" s="10" t="s">
+      <c r="G23" s="4"/>
+      <c r="BD23" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G24" s="5"/>
-      <c r="BD24" s="10" t="s">
+      <c r="G24" s="4"/>
+      <c r="BD24" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G25" s="5"/>
-      <c r="BD25" s="10" t="s">
+      <c r="G25" s="4"/>
+      <c r="BD25" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G26" s="5"/>
-      <c r="BD26" s="10" t="s">
+      <c r="G26" s="4"/>
+      <c r="BD26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G27" s="5"/>
-      <c r="BD27" s="10" t="s">
+      <c r="G27" s="4"/>
+      <c r="BD27" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G28" s="5"/>
-      <c r="BD28" s="10" t="s">
+      <c r="G28" s="4"/>
+      <c r="BD28" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G29" s="5"/>
-      <c r="BD29" s="10" t="s">
+      <c r="G29" s="4"/>
+      <c r="BD29" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G30" s="5"/>
-      <c r="BD30" s="10" t="s">
+      <c r="G30" s="4"/>
+      <c r="BD30" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G31" s="5"/>
-      <c r="BD31" s="10" t="s">
+      <c r="G31" s="4"/>
+      <c r="BD31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G32" s="5"/>
-      <c r="BD32" s="10" t="s">
+      <c r="G32" s="4"/>
+      <c r="BD32" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G33" s="5"/>
-      <c r="BD33" s="10" t="s">
+      <c r="G33" s="4"/>
+      <c r="BD33" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G34" s="5"/>
-      <c r="BD34" s="10" t="s">
+      <c r="G34" s="4"/>
+      <c r="BD34" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G35" s="5"/>
-      <c r="BD35" s="10" t="s">
+      <c r="G35" s="4"/>
+      <c r="BD35" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G36" s="5"/>
-      <c r="BD36" s="10" t="s">
+      <c r="G36" s="4"/>
+      <c r="BD36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G37" s="5"/>
-      <c r="BD37" s="10" t="s">
+      <c r="G37" s="4"/>
+      <c r="BD37" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G38" s="5"/>
-      <c r="BD38" s="10" t="s">
+      <c r="G38" s="4"/>
+      <c r="BD38" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G39" s="5"/>
-      <c r="BD39" s="10" t="s">
+      <c r="G39" s="4"/>
+      <c r="BD39" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G40" s="5"/>
-      <c r="BD40" s="10" t="s">
+      <c r="G40" s="4"/>
+      <c r="BD40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G41" s="5"/>
-      <c r="BD41" s="10" t="s">
+      <c r="G41" s="4"/>
+      <c r="BD41" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G42" s="5"/>
-      <c r="BD42" s="10" t="s">
+      <c r="G42" s="4"/>
+      <c r="BD42" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G43" s="5"/>
-      <c r="BD43" s="10" t="s">
+      <c r="G43" s="4"/>
+      <c r="BD43" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G44" s="5"/>
-      <c r="BD44" s="10" t="s">
+      <c r="G44" s="4"/>
+      <c r="BD44" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G45" s="5"/>
-      <c r="BD45" s="10" t="s">
+      <c r="G45" s="4"/>
+      <c r="BD45" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="46" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G46" s="5"/>
-      <c r="BD46" s="10" t="s">
+      <c r="G46" s="4"/>
+      <c r="BD46" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G47" s="5"/>
-      <c r="BD47" s="10" t="s">
+      <c r="G47" s="4"/>
+      <c r="BD47" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="48" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G48" s="5"/>
-      <c r="BD48" s="10" t="s">
+      <c r="G48" s="4"/>
+      <c r="BD48" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="49" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G49" s="5"/>
-      <c r="BD49" s="10" t="s">
+      <c r="G49" s="4"/>
+      <c r="BD49" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G50" s="5"/>
-      <c r="BD50" s="10" t="s">
+      <c r="G50" s="4"/>
+      <c r="BD50" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G51" s="5"/>
-      <c r="BD51" s="10" t="s">
+      <c r="G51" s="4"/>
+      <c r="BD51" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="52" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G52" s="5"/>
-      <c r="BD52" s="10" t="s">
+      <c r="G52" s="4"/>
+      <c r="BD52" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="53" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G53" s="5"/>
-      <c r="BD53" s="10" t="s">
+      <c r="G53" s="4"/>
+      <c r="BD53" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="54" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G54" s="5"/>
-      <c r="BD54" s="10" t="s">
+      <c r="G54" s="4"/>
+      <c r="BD54" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="55" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G55" s="5"/>
-      <c r="BD55" s="10" t="s">
+      <c r="G55" s="4"/>
+      <c r="BD55" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="56" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G56" s="5"/>
-      <c r="BD56" s="10" t="s">
+      <c r="G56" s="4"/>
+      <c r="BD56" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="57" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G57" s="5"/>
-      <c r="BD57" s="10" t="s">
+      <c r="G57" s="4"/>
+      <c r="BD57" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="58" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G58" s="5"/>
-      <c r="BD58" s="10" t="s">
+      <c r="G58" s="4"/>
+      <c r="BD58" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G59" s="5"/>
-      <c r="BD59" s="10" t="s">
+      <c r="G59" s="4"/>
+      <c r="BD59" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="60" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G60" s="5"/>
-      <c r="BD60" s="10" t="s">
+      <c r="G60" s="4"/>
+      <c r="BD60" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="61" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G61" s="5"/>
-      <c r="BD61" s="10" t="s">
+      <c r="G61" s="4"/>
+      <c r="BD61" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="62" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G62" s="5"/>
-      <c r="BD62" s="10" t="s">
+      <c r="G62" s="4"/>
+      <c r="BD62" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="63" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G63" s="5"/>
-      <c r="BD63" s="10" t="s">
+      <c r="G63" s="4"/>
+      <c r="BD63" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="64" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G64" s="5"/>
-      <c r="BD64" s="10" t="s">
+      <c r="G64" s="4"/>
+      <c r="BD64" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G65" s="5"/>
-      <c r="BD65" s="10" t="s">
+      <c r="G65" s="4"/>
+      <c r="BD65" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="66" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G66" s="5"/>
-      <c r="BD66" s="10" t="s">
+      <c r="G66" s="4"/>
+      <c r="BD66" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="67" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G67" s="5"/>
-      <c r="BD67" s="10" t="s">
+      <c r="G67" s="4"/>
+      <c r="BD67" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="68" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G68" s="5"/>
-      <c r="BD68" s="10" t="s">
+      <c r="G68" s="4"/>
+      <c r="BD68" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="69" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G69" s="5"/>
-      <c r="BD69" s="10" t="s">
+      <c r="G69" s="4"/>
+      <c r="BD69" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="70" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G70" s="5"/>
-      <c r="BD70" s="10" t="s">
+      <c r="G70" s="4"/>
+      <c r="BD70" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="71" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G71" s="5"/>
-      <c r="BD71" s="10" t="s">
+      <c r="G71" s="4"/>
+      <c r="BD71" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="72" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G72" s="5"/>
-      <c r="BD72" s="10" t="s">
+      <c r="G72" s="4"/>
+      <c r="BD72" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="73" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G73" s="5"/>
-      <c r="BD73" s="10" t="s">
+      <c r="G73" s="4"/>
+      <c r="BD73" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="74" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G74" s="5"/>
-      <c r="BD74" s="10" t="s">
+      <c r="G74" s="4"/>
+      <c r="BD74" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="75" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G75" s="5"/>
-      <c r="BD75" s="10" t="s">
+      <c r="G75" s="4"/>
+      <c r="BD75" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="76" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G76" s="5"/>
-      <c r="BD76" s="10" t="s">
+      <c r="G76" s="4"/>
+      <c r="BD76" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="77" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G77" s="5"/>
-      <c r="BD77" s="10" t="s">
+      <c r="G77" s="4"/>
+      <c r="BD77" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="78" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G78" s="5"/>
-      <c r="BD78" s="10" t="s">
+      <c r="G78" s="4"/>
+      <c r="BD78" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="79" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G79" s="5"/>
-      <c r="BD79" s="10" t="s">
+      <c r="G79" s="4"/>
+      <c r="BD79" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="80" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G80" s="5"/>
-      <c r="BD80" s="10" t="s">
+      <c r="G80" s="4"/>
+      <c r="BD80" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="81" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G81" s="5"/>
-      <c r="BD81" s="10" t="s">
+      <c r="G81" s="4"/>
+      <c r="BD81" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="82" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G82" s="5"/>
-      <c r="BD82" s="10" t="s">
+      <c r="G82" s="4"/>
+      <c r="BD82" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="83" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G83" s="5"/>
-      <c r="BD83" s="10" t="s">
+      <c r="G83" s="4"/>
+      <c r="BD83" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="84" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G84" s="5"/>
-      <c r="BD84" s="10" t="s">
+      <c r="G84" s="4"/>
+      <c r="BD84" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="85" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G85" s="5"/>
-      <c r="BD85" s="10" t="s">
+      <c r="G85" s="4"/>
+      <c r="BD85" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="86" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G86" s="5"/>
-      <c r="BD86" s="10" t="s">
+      <c r="G86" s="4"/>
+      <c r="BD86" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="87" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G87" s="5"/>
-      <c r="BD87" s="10" t="s">
+      <c r="G87" s="4"/>
+      <c r="BD87" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="88" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G88" s="5"/>
-      <c r="BD88" s="10" t="s">
+      <c r="G88" s="4"/>
+      <c r="BD88" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="89" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G89" s="5"/>
-      <c r="BD89" s="10" t="s">
+      <c r="G89" s="4"/>
+      <c r="BD89" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="90" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G90" s="5"/>
-      <c r="BD90" s="10" t="s">
+      <c r="G90" s="4"/>
+      <c r="BD90" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="91" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G91" s="5"/>
-      <c r="BD91" s="10" t="s">
+      <c r="G91" s="4"/>
+      <c r="BD91" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="92" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G92" s="5"/>
-      <c r="BD92" s="10" t="s">
+      <c r="G92" s="4"/>
+      <c r="BD92" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="93" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G93" s="5"/>
-      <c r="BD93" s="10" t="s">
+      <c r="G93" s="4"/>
+      <c r="BD93" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="94" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G94" s="5"/>
-      <c r="BD94" s="10" t="s">
+      <c r="G94" s="4"/>
+      <c r="BD94" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="95" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G95" s="5"/>
-      <c r="BD95" s="10" t="s">
+      <c r="G95" s="4"/>
+      <c r="BD95" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="96" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G96" s="5"/>
-      <c r="BD96" s="10" t="s">
+      <c r="G96" s="4"/>
+      <c r="BD96" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="97" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G97" s="5"/>
-      <c r="BD97" s="10" t="s">
+      <c r="G97" s="4"/>
+      <c r="BD97" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="98" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G98" s="5"/>
-      <c r="BD98" s="10" t="s">
+      <c r="G98" s="4"/>
+      <c r="BD98" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="99" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G99" s="5"/>
-      <c r="BD99" s="10" t="s">
+      <c r="G99" s="4"/>
+      <c r="BD99" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="100" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G100" s="5"/>
-      <c r="BD100" s="10" t="s">
+      <c r="G100" s="4"/>
+      <c r="BD100" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="101" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G101" s="5"/>
-      <c r="BD101" s="10" t="s">
+      <c r="G101" s="4"/>
+      <c r="BD101" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="102" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G102" s="5"/>
-      <c r="BD102" s="10" t="s">
+      <c r="G102" s="4"/>
+      <c r="BD102" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="103" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G103" s="5"/>
-      <c r="BD103" s="10" t="s">
+      <c r="G103" s="4"/>
+      <c r="BD103" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="104" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G104" s="5"/>
-      <c r="BD104" s="10" t="s">
+      <c r="G104" s="4"/>
+      <c r="BD104" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="105" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G105" s="5"/>
-      <c r="BD105" s="10" t="s">
+      <c r="G105" s="4"/>
+      <c r="BD105" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="106" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G106" s="5"/>
-      <c r="BD106" s="10" t="s">
+      <c r="G106" s="4"/>
+      <c r="BD106" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="107" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G107" s="5"/>
-      <c r="BD107" s="10" t="s">
+      <c r="G107" s="4"/>
+      <c r="BD107" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="108" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G108" s="5"/>
-      <c r="BD108" s="10" t="s">
+      <c r="G108" s="4"/>
+      <c r="BD108" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="109" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G109" s="5"/>
-      <c r="BD109" s="10" t="s">
+      <c r="G109" s="4"/>
+      <c r="BD109" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="110" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G110" s="5"/>
-      <c r="BD110" s="10" t="s">
+      <c r="G110" s="4"/>
+      <c r="BD110" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="111" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G111" s="5"/>
-      <c r="BD111" s="10" t="s">
+      <c r="G111" s="4"/>
+      <c r="BD111" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="112" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G112" s="5"/>
-      <c r="BD112" s="10" t="s">
+      <c r="G112" s="4"/>
+      <c r="BD112" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="113" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G113" s="5"/>
-      <c r="BD113" s="10" t="s">
+      <c r="G113" s="4"/>
+      <c r="BD113" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="114" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G114" s="5"/>
-      <c r="BD114" s="10" t="s">
+      <c r="G114" s="4"/>
+      <c r="BD114" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="115" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G115" s="5"/>
-      <c r="BD115" s="10" t="s">
+      <c r="G115" s="4"/>
+      <c r="BD115" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="116" spans="7:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G116" s="5"/>
-      <c r="BD116" s="10" t="s">
+      <c r="G116" s="4"/>
+      <c r="BD116" s="3" t="s">
         <v>31</v>
       </c>
     </row>
